--- a/src/attributions/attributions_saliency_traj_314.xlsx
+++ b/src/attributions/attributions_saliency_traj_314.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06917499005794525</v>
+        <v>0.03843984380364418</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02016377449035645</v>
+        <v>0.01323898881673813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009425088763237</v>
+        <v>0.01617333479225636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03712804242968559</v>
+        <v>0.02085823565721512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02606935799121857</v>
+        <v>0.007845416665077209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00652435002848506</v>
+        <v>0.0143523970618844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02688113413751125</v>
+        <v>0.003396572079509497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001878318609669805</v>
+        <v>0.008995646610856056</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0112579520791769</v>
+        <v>0.002075013937428594</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0599500797688961</v>
+        <v>0.0361754521727562</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01610618643462658</v>
+        <v>0.009488951414823532</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02459662780165672</v>
+        <v>0.01554619055241346</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03628741204738617</v>
+        <v>0.003943065647035837</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04086611792445183</v>
+        <v>0.0005794183816760778</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008246257901191711</v>
+        <v>0.0007322384044528008</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0378059521317482</v>
+        <v>0.003158858511596918</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002283738227561116</v>
+        <v>0.002400386612862349</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01831449754536152</v>
+        <v>0.002782452618703246</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003821633523330092</v>
+        <v>0.003645821241661906</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003013214794918895</v>
+        <v>0.009955103509128094</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002104297047480941</v>
+        <v>0.005318567156791687</v>
       </c>
       <c r="V2" t="n">
-        <v>0.009081754833459854</v>
+        <v>0.002795458305627108</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001189520582556725</v>
+        <v>0.00506629841402173</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007970365695655346</v>
+        <v>0.004995477851480246</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001113656908273697</v>
+        <v>0.001821290352381766</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0003369131591171026</v>
+        <v>0.007590508088469505</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003946395590901375</v>
+        <v>0.001143810455687344</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.006191522814333439</v>
+        <v>0.0003527849912643433</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.005064086988568306</v>
+        <v>0.01406787242740393</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.007684935349971056</v>
+        <v>0.002202674048021436</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.008334396407008171</v>
+        <v>0.006664657033979893</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0008875171770341694</v>
+        <v>0.004457694943994284</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.005036579445004463</v>
+        <v>0.001626464072614908</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.005078144371509552</v>
+        <v>0.001427152194082737</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01391206495463848</v>
+        <v>0.004334175959229469</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002689803717657924</v>
+        <v>0.004888238850980997</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01648013852536678</v>
+        <v>0.003893252462148666</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.008573923259973526</v>
+        <v>0.002798520028591156</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.003915759734809399</v>
+        <v>0.0009327690349891782</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.004580198787152767</v>
+        <v>0.00376084866002202</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.001422647386789322</v>
+        <v>0.00869700126349926</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001040296629071236</v>
+        <v>0.001621587434783578</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.003299530362710357</v>
+        <v>0.005768075585365295</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0019876838196069</v>
+        <v>0.008382201194763184</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.002693450544029474</v>
+        <v>0.00372821930795908</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.02924744039773941</v>
+        <v>0.02307058311998844</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.007743002381175756</v>
+        <v>0.008894016966223717</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.007548508234322071</v>
+        <v>0.01469914801418781</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.008798189461231232</v>
+        <v>0.01351303979754448</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.003222160972654819</v>
+        <v>4.6564731746912e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.001177520491182804</v>
+        <v>0.002603190951049328</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.001852904446423054</v>
+        <v>0.004778929520398378</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0149035369977355</v>
+        <v>0.007326201535761356</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.003554841969162226</v>
+        <v>0.005980851594358683</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.02147592417895794</v>
+        <v>0.0203967597335577</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.01176296547055244</v>
+        <v>0.02186550199985504</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01007516961544752</v>
+        <v>0.000343147199600935</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.009340995922684669</v>
+        <v>0.006568740587681532</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.007810450624674559</v>
+        <v>0.01302941050380468</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.004152932204306126</v>
+        <v>0.001732308650389314</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.01123575307428837</v>
+        <v>0.004115620627999306</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.03246361017227173</v>
+        <v>0.009605514816939831</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.004590266849845648</v>
+        <v>0.009308422915637493</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.003413371276110411</v>
+        <v>0.0002594740362837911</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.009595202282071114</v>
+        <v>0.004736357368528843</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.001575517933815718</v>
+        <v>0.003435090882703662</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.004291164688766003</v>
+        <v>0.006419611629098654</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00937424972653389</v>
+        <v>0.007172419223934412</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00577932083979249</v>
+        <v>0.002079492434859276</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.008109605871140957</v>
+        <v>0.005696312990039587</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0006017375271767378</v>
+        <v>0.00718484865501523</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.002482009585946798</v>
+        <v>0.004333256278187037</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02609345316886902</v>
+        <v>0.008117635734379292</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.004755403846502304</v>
+        <v>0.0002502677962183952</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01049748808145523</v>
+        <v>0.007169566117227077</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.01183327939361334</v>
+        <v>0.00154696183744818</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001621742732822895</v>
+        <v>0.00407625176012516</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.007674978114664555</v>
+        <v>0.0009927479550242424</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.002254300750792027</v>
+        <v>0.002575140912085772</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.01162182912230492</v>
+        <v>0.00498069217428565</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.006857370957732201</v>
+        <v>0.003841697704046965</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.01246671099215746</v>
+        <v>0.007030873093754053</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.01705809123814106</v>
+        <v>0.004095092415809631</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.004104482475668192</v>
+        <v>0.001315933535806835</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.004975082818418741</v>
+        <v>2.789488644339144e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.002493120031431317</v>
+        <v>0.002120001474395394</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.003016333561390638</v>
+        <v>0.005431320983916521</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.008007609285414219</v>
+        <v>0.0001271277433261275</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.003883075900375843</v>
+        <v>0.004955691751092672</v>
       </c>
       <c r="CL2" t="n">
-        <v>6.132603448349983e-05</v>
+        <v>0.0005197172868065536</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.003403099719434977</v>
+        <v>0.01181982737034559</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.004147760570049286</v>
+        <v>0.00852541346102953</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0007602638797834516</v>
+        <v>0.0003080336609855294</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00905971322208643</v>
+        <v>0.01144429389387369</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02924573980271816</v>
+        <v>0.01388132758438587</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.01863779872655869</v>
+        <v>0.005795470904558897</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001566317863762379</v>
+        <v>0.008980205282568932</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01796017214655876</v>
+        <v>0.01508005149662495</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.002507641213014722</v>
+        <v>0.002679453231394291</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.009401949122548103</v>
+        <v>0.00563362892717123</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01739739812910557</v>
+        <v>0.004025721456855536</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.004852714948356152</v>
+        <v>0.002134133595973253</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.004485045559704304</v>
+        <v>0.001826522871851921</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.001939128502272069</v>
+        <v>0.001620020717382431</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00190000282600522</v>
+        <v>0.00444356445223093</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.007648862898349762</v>
+        <v>0.0004641470732167363</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0006772957276552916</v>
+        <v>0.00340137560851872</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0005168308271095157</v>
+        <v>0.0005271825939416885</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.004208924248814583</v>
+        <v>0.002043898217380047</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02752339094877243</v>
+        <v>0.01261226832866669</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.008716743439435959</v>
+        <v>0.01787108927965164</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.003127134870737791</v>
+        <v>0.01662221178412437</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01238636672496796</v>
+        <v>0.01526900287717581</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.002984087448567152</v>
+        <v>0.01167500484734774</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.002935967873781919</v>
+        <v>0.001449077390134335</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0105624021962285</v>
+        <v>0.02023353241384029</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.006200057920068502</v>
+        <v>0.00472703343257308</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00337751698680222</v>
+        <v>0.005635625682771206</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01269904337823391</v>
+        <v>0.002088978420943022</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.006139387842267752</v>
+        <v>0.005563756451010704</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0003328579477965832</v>
+        <v>0.007854277268052101</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006635817233473063</v>
+        <v>0.006860219873487949</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.01209175866097212</v>
+        <v>0.0006314087077043951</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.002987324260175228</v>
+        <v>0.003647912759333849</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.005626778583973646</v>
+        <v>0.002600267063826323</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.006070899311453104</v>
+        <v>0.007592819631099701</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00111224059946835</v>
+        <v>0.006505510769784451</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.006467683240771294</v>
+        <v>0.0004781830357387662</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00659116730093956</v>
+        <v>0.004016119986772537</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.003524029394611716</v>
+        <v>0.001412394223734736</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.007962824776768684</v>
+        <v>0.001117025967687368</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.005516429431736469</v>
+        <v>0.004113777540624142</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.007045171689242125</v>
+        <v>0.001790514215826988</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02381351962685585</v>
+        <v>0.001551507855765522</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.003022306598722935</v>
+        <v>0.004288631025701761</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02310968935489655</v>
+        <v>0.008632989600300789</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01796547137200832</v>
+        <v>0.007950715720653534</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.002437022048979998</v>
+        <v>0.007214155979454517</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01314462907612324</v>
+        <v>0.009054224006831646</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.002900995314121246</v>
+        <v>0.004834805149585009</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.003700977191329002</v>
+        <v>0.0006196009926497936</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00287216529250145</v>
+        <v>0.001178139820694923</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.01530430559068918</v>
+        <v>0.002094823634251952</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.859586134552956e-05</v>
+        <v>0.001684550661593676</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.004110779613256454</v>
+        <v>0.000158277340233326</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01325303688645363</v>
+        <v>0.009905477985739708</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.009007113054394722</v>
+        <v>0.001378190936520696</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.009461638517677784</v>
+        <v>0.0002187860663980246</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00274717272259295</v>
+        <v>0.001789367059245706</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.002875630976632237</v>
+        <v>0.004556169733405113</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.01159963384270668</v>
+        <v>0.002656220924109221</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.003216687589883804</v>
+        <v>0.007704672869294882</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.002829130506142974</v>
+        <v>0.01083090715110302</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.01016707997769117</v>
+        <v>0.005546957720071077</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01610509306192398</v>
+        <v>0.004419134929776192</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.005138552747666836</v>
+        <v>0.00278048194013536</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.004180993884801865</v>
+        <v>0.001826447900384665</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.002365554217249155</v>
+        <v>0.001363181509077549</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.005802162922918797</v>
+        <v>0.003490046132355928</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.007437092252075672</v>
+        <v>0.001466130255721509</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.003554523689672351</v>
+        <v>0.003505526809021831</v>
       </c>
       <c r="FF2" t="n">
-        <v>7.504608947783709e-05</v>
+        <v>0.001293778419494629</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.01067984104156494</v>
+        <v>0.001202465035021305</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.006950366776436567</v>
+        <v>0.006485786754637957</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.001525445375591516</v>
+        <v>0.01002630777657032</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.01359370816498995</v>
+        <v>0.00336409593001008</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01457190793007612</v>
+        <v>0.005117880180478096</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.01281372644007206</v>
+        <v>0.01049344800412655</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.006102917715907097</v>
+        <v>0.004241954069584608</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.001041530631482601</v>
+        <v>0.001226512249559164</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0003518329467624426</v>
+        <v>0.004858248401433229</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001877318136394024</v>
+        <v>0.004903557244688272</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.02153162844479084</v>
+        <v>0.01313498057425022</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01225737482309341</v>
+        <v>0.009135976433753967</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.006181542761623859</v>
+        <v>0.009769799187779427</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.006421513389796019</v>
+        <v>0.01091911271214485</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01185975316911936</v>
+        <v>0.007717499975115061</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.007757247425615788</v>
+        <v>0.003418408799916506</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.002196758752688766</v>
+        <v>0.00155161670409143</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.004143325611948967</v>
+        <v>0.001151800737716258</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.01569359935820103</v>
+        <v>0.003109816461801529</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00571093475446105</v>
+        <v>0.006882686167955399</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01307547558099031</v>
+        <v>0.0004954044707119465</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.005125068128108978</v>
+        <v>0.0008437996730208397</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.01197933964431286</v>
+        <v>0.007029721047729254</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.004498611204326153</v>
+        <v>0.001486073946580291</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.01328891236335039</v>
+        <v>0.009169257245957851</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.006323245353996754</v>
+        <v>0.002987089799717069</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.001034107757732272</v>
+        <v>0.006444206926971674</v>
       </c>
     </row>
     <row r="3">
@@ -2711,3416 +2711,3416 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001013137516565621</v>
+        <v>4.960846126778051e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0003950627869926393</v>
+        <v>3.770904004340991e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.592696783831343e-05</v>
+        <v>3.677904942378518e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000328798545524478</v>
+        <v>2.22545913857175e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000545285758562386</v>
+        <v>9.02488682186231e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>8.526518649887294e-05</v>
+        <v>8.858452929416671e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000308544171275571</v>
+        <v>1.240077267539164e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>1.512540438852739e-05</v>
+        <v>7.25680706636922e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>9.447803313378245e-05</v>
+        <v>1.256588348041987e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008806645055301487</v>
+        <v>8.427773536823224e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002591374504845589</v>
+        <v>3.022283999598585e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001262648147530854</v>
+        <v>2.136600642188569e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000283168483292684</v>
+        <v>1.647236058488488e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0007135681807994843</v>
+        <v>1.012018674373394e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>3.065894998144358e-05</v>
+        <v>1.525321295048343e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.000389512162655592</v>
+        <v>4.772035936184693e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03533229776076e-05</v>
+        <v>7.68224799685413e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0001324007462244481</v>
+        <v>3.579355620786373e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>3.453751560300589e-05</v>
+        <v>6.825615628258674e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>5.497481470229104e-05</v>
+        <v>4.98676672577858e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>2.47097596002277e-05</v>
+        <v>6.133140004749293e-07</v>
       </c>
       <c r="V5" t="n">
-        <v>2.832069185387809e-05</v>
+        <v>3.766540430660825e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>8.016240826691501e-07</v>
+        <v>1.197766295035763e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>3.212130104657263e-05</v>
+        <v>3.798491434281459e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.343711068737321e-05</v>
+        <v>4.63647165815928e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0001265070459339768</v>
+        <v>4.558605724014342e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.078881814464694e-05</v>
+        <v>5.064424840384163e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001486669789301232</v>
+        <v>2.277246039739111e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.85763965419028e-05</v>
+        <v>1.516600036666205e-06</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.236143675167114e-05</v>
+        <v>7.847686447348678e-07</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.449436528375372e-05</v>
+        <v>2.498835272035649e-07</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.902154953218997e-05</v>
+        <v>9.484514862379001e-07</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.115357554226648e-05</v>
+        <v>5.170927579456475e-07</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.45419890031917e-05</v>
+        <v>1.399560915160691e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0002409213775536045</v>
+        <v>2.783439413178712e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0001099590590456501</v>
+        <v>1.824632022362493e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0001893299049697816</v>
+        <v>2.667645730980439e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.109374564606696e-05</v>
+        <v>4.350123163021635e-06</v>
       </c>
       <c r="AM5" t="n">
-        <v>5.900215910514817e-05</v>
+        <v>1.458534825360402e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0001013402070384473</v>
+        <v>7.031130735413171e-07</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0001040232527884655</v>
+        <v>2.108139369738637e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.176800080633257e-05</v>
+        <v>5.511512881639646e-07</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.706664872675901e-06</v>
+        <v>1.937239858307294e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.052217602496967e-05</v>
+        <v>4.334272034611786e-07</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.653495019127149e-06</v>
+        <v>2.847966698027449e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0004518864152487367</v>
+        <v>2.981089664899628e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.051810775417835e-05</v>
+        <v>2.374245741521008e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>3.911023668479174e-05</v>
+        <v>1.478572926316701e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.646716742077842e-05</v>
+        <v>9.861648322839756e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0001708177442196757</v>
+        <v>4.618900675268378e-06</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0001628290046937764</v>
+        <v>1.113909888772469e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.142595116718439e-06</v>
+        <v>2.6258041998517e-06</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001055168031598441</v>
+        <v>2.005012674999307e-06</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.823778620746452e-05</v>
+        <v>4.743455974676181e-06</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0003115416620858014</v>
+        <v>3.365689281054074e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.263927126477938e-05</v>
+        <v>5.982603397569619e-06</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.27408774360083e-05</v>
+        <v>1.0383791050117e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.915668690344319e-05</v>
+        <v>1.553629545014701e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0001523886458016932</v>
+        <v>8.023469490581192e-06</v>
       </c>
       <c r="BH5" t="n">
-        <v>7.350288797169924e-05</v>
+        <v>5.41514964425005e-06</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0001656798413023353</v>
+        <v>2.106153942804667e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0002539942797739059</v>
+        <v>7.714689672866371e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.697619856917299e-05</v>
+        <v>1.668216782491072e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.972524816868827e-05</v>
+        <v>2.821757561832783e-06</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001582018885528669</v>
+        <v>5.11115695189801e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>5.264859282760881e-06</v>
+        <v>4.609927600540686e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>7.566937711089849e-05</v>
+        <v>1.83918996299326e-06</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0001813134149415419</v>
+        <v>4.24140762333991e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>4.416828596731648e-05</v>
+        <v>1.720970885799034e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0001081805457943119</v>
+        <v>1.976567773454008e-06</v>
       </c>
       <c r="BS5" t="n">
-        <v>5.365609467844479e-05</v>
+        <v>8.853002100295271e-07</v>
       </c>
       <c r="BT5" t="n">
-        <v>4.45569385192357e-05</v>
+        <v>4.851209496337106e-07</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.000342525978339836</v>
+        <v>5.845699320161657e-07</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.972805279772729e-05</v>
+        <v>1.234689989360049e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>6.303485861280933e-05</v>
+        <v>3.908603957825107e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0001834351278375834</v>
+        <v>6.455552465922665e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0002276093291584402</v>
+        <v>1.211960466207529e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>5.437158324639313e-05</v>
+        <v>2.047182306341711e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>6.198190385475755e-05</v>
+        <v>4.41340807810775e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0001171588810393587</v>
+        <v>7.699625257373555e-07</v>
       </c>
       <c r="CC5" t="n">
-        <v>9.571566624799743e-05</v>
+        <v>3.364997610333376e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0001940901565831155</v>
+        <v>1.932548059357941e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0001856305607361719</v>
+        <v>5.803048225061502e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.732136090344284e-05</v>
+        <v>3.770391003854456e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>5.2682855312014e-05</v>
+        <v>2.374674522798159e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>7.841933256713673e-05</v>
+        <v>1.37819813517126e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.090337900677696e-05</v>
+        <v>2.489689450158039e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>5.518859688891098e-05</v>
+        <v>5.146405896994111e-07</v>
       </c>
       <c r="CK5" t="n">
-        <v>3.906423080479726e-05</v>
+        <v>6.054796131138573e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>2.084373591060285e-05</v>
+        <v>3.154354089929257e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>6.921790190972388e-05</v>
+        <v>6.739620857842965e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>5.616245834971778e-05</v>
+        <v>3.366150735928386e-08</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.826494008128066e-05</v>
+        <v>1.800548261599033e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.327929541934282e-05</v>
+        <v>5.089555997983553e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0001598270027898252</v>
+        <v>3.605204028644948e-06</v>
       </c>
       <c r="CR5" t="n">
-        <v>3.973418642999604e-06</v>
+        <v>9.674414513938245e-07</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.873836845334154e-05</v>
+        <v>6.89402304487885e-06</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0001388283853884786</v>
+        <v>4.523672032519244e-06</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.707696355879307e-05</v>
+        <v>8.598780141255702e-07</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0001568283623782918</v>
+        <v>1.813898791169777e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0001761869643814862</v>
+        <v>5.475403213495156e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>5.817875353386626e-05</v>
+        <v>3.616146386775654e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>3.525766805978492e-05</v>
+        <v>4.497662303037941e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>5.307987885316834e-05</v>
+        <v>1.397714299855579e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>8.103493200906087e-06</v>
+        <v>2.681140131244319e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>6.106941145844758e-05</v>
+        <v>1.114619976760878e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>5.782678272225894e-06</v>
+        <v>1.492758087806578e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>2.477586167515256e-05</v>
+        <v>2.295358854098595e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>9.085999772651121e-05</v>
+        <v>4.049271410622168e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0002862700785044581</v>
+        <v>1.488367843194283e-06</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0001160418032668531</v>
+        <v>6.850230874988483e-06</v>
       </c>
       <c r="DH5" t="n">
-        <v>5.263587445369922e-05</v>
+        <v>1.720340696920175e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.387608765275218e-05</v>
+        <v>2.677160864550387e-06</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0001006440579658374</v>
+        <v>2.855351340258494e-06</v>
       </c>
       <c r="DK5" t="n">
-        <v>3.457254933891818e-05</v>
+        <v>1.67170526310656e-06</v>
       </c>
       <c r="DL5" t="n">
-        <v>5.046153455623426e-05</v>
+        <v>4.013090801890939e-06</v>
       </c>
       <c r="DM5" t="n">
-        <v>5.040740143158473e-05</v>
+        <v>6.3706642094985e-07</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.208048342959955e-05</v>
+        <v>2.294558498761035e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>8.677630830788985e-05</v>
+        <v>2.269199512738851e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>5.714289000025019e-05</v>
+        <v>3.455523028605967e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>4.39495597674977e-05</v>
+        <v>1.344927511581773e-07</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0001097876302083023</v>
+        <v>9.614709597371984e-07</v>
       </c>
       <c r="DS5" t="n">
-        <v>3.110058605670929e-05</v>
+        <v>2.593476210677181e-06</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.237679604557343e-05</v>
+        <v>2.865771193683031e-07</v>
       </c>
       <c r="DU5" t="n">
-        <v>5.481554762809537e-05</v>
+        <v>1.23773725135834e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>4.015158992842771e-06</v>
+        <v>5.720733497582842e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.809129339060746e-05</v>
+        <v>3.850345819955692e-08</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0001418595056748018</v>
+        <v>6.686791039101081e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>5.85967063670978e-05</v>
+        <v>5.398586381488713e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.869000152510125e-05</v>
+        <v>1.656207814448862e-06</v>
       </c>
       <c r="EA5" t="n">
-        <v>8.949602488428354e-05</v>
+        <v>1.949954139490728e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>1.431060991308186e-05</v>
+        <v>5.050663276051637e-06</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.966688068932854e-05</v>
+        <v>8.053686997300247e-07</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0002696930023375899</v>
+        <v>1.244132590727531e-06</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.44977675518021e-05</v>
+        <v>1.448979105589387e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0003066663048230112</v>
+        <v>2.113519713020651e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0003015971451532096</v>
+        <v>3.385076297490741e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>5.541546852327883e-05</v>
+        <v>1.881440994111472e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0001201029226649553</v>
+        <v>2.320497742402949e-06</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0001037303154589608</v>
+        <v>1.11442875549983e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>2.446558028168511e-05</v>
+        <v>2.305474708919064e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>3.264499173383228e-05</v>
+        <v>7.673214668102446e-07</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0001368012744933367</v>
+        <v>1.708734998828731e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>2.234666681033559e-06</v>
+        <v>1.498854203418887e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>6.105823558755219e-05</v>
+        <v>1.772875748429215e-07</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0001772427058313042</v>
+        <v>2.486647190380609e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>2.049452450592071e-05</v>
+        <v>4.557360171020264e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>7.018027099547908e-05</v>
+        <v>5.864868626304087e-07</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0001056056935340166</v>
+        <v>2.939122623502044e-06</v>
       </c>
       <c r="ET5" t="n">
-        <v>5.195522589929169e-06</v>
+        <v>1.954978415596997e-06</v>
       </c>
       <c r="EU5" t="n">
-        <v>9.725632844492793e-05</v>
+        <v>2.67496920969279e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0001008054823614657</v>
+        <v>6.993838724156376e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.781564944598358e-05</v>
+        <v>1.319096327279112e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0001620310940779746</v>
+        <v>7.166408977354877e-07</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0001494818716309965</v>
+        <v>5.281488029140746e-06</v>
       </c>
       <c r="EZ5" t="n">
-        <v>4.576362698571756e-05</v>
+        <v>3.102430355284014e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>5.186866110307164e-05</v>
+        <v>3.013596142409369e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>5.361604053177871e-05</v>
+        <v>4.739530936603842e-07</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.910110404423904e-05</v>
+        <v>2.445463223921251e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>5.998493725201115e-05</v>
+        <v>1.653887807151477e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>3.14511707983911e-05</v>
+        <v>4.738805330362084e-07</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.062915154965594e-05</v>
+        <v>3.252557007726864e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0001167628797702491</v>
+        <v>3.086077867919812e-06</v>
       </c>
       <c r="FH5" t="n">
-        <v>6.168736581457779e-05</v>
+        <v>1.87978844223835e-06</v>
       </c>
       <c r="FI5" t="n">
-        <v>4.396782605908811e-05</v>
+        <v>5.336627509677783e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>5.427741416497156e-05</v>
+        <v>3.483063437670353e-06</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0002134561655111611</v>
+        <v>1.042980102283764e-07</v>
       </c>
       <c r="FL5" t="n">
-        <v>7.215445657493547e-05</v>
+        <v>2.374918040004559e-06</v>
       </c>
       <c r="FM5" t="n">
-        <v>3.330350591568276e-05</v>
+        <v>4.457896238818648e-07</v>
       </c>
       <c r="FN5" t="n">
-        <v>1.395863273501163e-05</v>
+        <v>5.773540578957181e-06</v>
       </c>
       <c r="FO5" t="n">
-        <v>7.420007932523731e-06</v>
+        <v>1.578920205247414e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0001366211799904704</v>
+        <v>1.333372097178653e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0003186705289408565</v>
+        <v>1.239564539901039e-06</v>
       </c>
       <c r="FR5" t="n">
-        <v>5.661632167175412e-05</v>
+        <v>1.8701825865719e-06</v>
       </c>
       <c r="FS5" t="n">
-        <v>3.504316919133998e-05</v>
+        <v>2.345078087273578e-08</v>
       </c>
       <c r="FT5" t="n">
-        <v>2.442804179736413e-05</v>
+        <v>9.832265277509578e-06</v>
       </c>
       <c r="FU5" t="n">
-        <v>5.345004319678992e-05</v>
+        <v>1.368222797282215e-06</v>
       </c>
       <c r="FV5" t="n">
-        <v>1.624580545467325e-05</v>
+        <v>2.201373490606784e-06</v>
       </c>
       <c r="FW5" t="n">
-        <v>5.223738480708562e-05</v>
+        <v>3.264102815592196e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>2.627997491799761e-05</v>
+        <v>2.452507487760158e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.000132043962366879</v>
+        <v>5.620461706712376e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>3.535422729328275e-05</v>
+        <v>2.12833947443869e-06</v>
       </c>
       <c r="GA5" t="n">
-        <v>5.325219171936624e-05</v>
+        <v>6.287594089826598e-08</v>
       </c>
       <c r="GB5" t="n">
-        <v>5.51176635781303e-05</v>
+        <v>1.917894394409814e-07</v>
       </c>
       <c r="GC5" t="n">
-        <v>7.983845716807991e-05</v>
+        <v>4.713547696155729e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>5.338686605682597e-05</v>
+        <v>4.161937795288395e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>6.158664473332465e-05</v>
+        <v>8.625209375168197e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>4.921507206745446e-05</v>
+        <v>1.448223656552727e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.365308980894042e-05</v>
+        <v>4.496653218666324e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0006897253915667534</v>
+        <v>7.848990935599431e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>5.2954230341129e-05</v>
+        <v>0.004697104915976524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008587525808252394</v>
+        <v>0.0002314612647751346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002329435374122113</v>
+        <v>0.001563393976539373</v>
       </c>
       <c r="E6" t="n">
-        <v>7.545870175817981e-05</v>
+        <v>0.001919884351082146</v>
       </c>
       <c r="F6" t="n">
-        <v>8.839228394208476e-05</v>
+        <v>0.001838164404034615</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002735759189818054</v>
+        <v>0.0002330934221390635</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001141741086030379</v>
+        <v>0.0007283767336048186</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001804535859264433</v>
+        <v>4.935516335535794e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006100612226873636</v>
+        <v>0.0004040580824948847</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001470127317588776</v>
+        <v>0.004459447227418423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008985827444121242</v>
+        <v>0.0003465893678367138</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001362147886538878</v>
+        <v>0.001091737765818834</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0002331211435375735</v>
+        <v>0.001429609372280538</v>
       </c>
       <c r="O6" t="n">
-        <v>7.567349530290812e-05</v>
+        <v>0.002266941824927926</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0003132368728984147</v>
+        <v>0.0003430374199524522</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0001813064591260627</v>
+        <v>0.0003473485703580081</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0002277289750054479</v>
+        <v>0.0003894786641467363</v>
       </c>
       <c r="S6" t="n">
-        <v>9.39991332415957e-06</v>
+        <v>0.0001358884037472308</v>
       </c>
       <c r="T6" t="n">
-        <v>0.000243209142354317</v>
+        <v>0.0005999573622830212</v>
       </c>
       <c r="U6" t="n">
-        <v>5.074507862445898e-05</v>
+        <v>0.0001803902559913695</v>
       </c>
       <c r="V6" t="n">
-        <v>2.351566945435479e-05</v>
+        <v>0.0004499268834479153</v>
       </c>
       <c r="W6" t="n">
-        <v>1.317111036769347e-05</v>
+        <v>0.0002736335736699402</v>
       </c>
       <c r="X6" t="n">
-        <v>2.722974932112265e-05</v>
+        <v>0.0004824849020224065</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.495695611694828e-05</v>
+        <v>1.668024196987972e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0002062185958493501</v>
+        <v>0.0002991678775288165</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.888812559831422e-05</v>
+        <v>0.0001824204227887094</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.276085671037436e-05</v>
+        <v>0.0002326964458916336</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.260392309632152e-06</v>
+        <v>8.841104136081412e-05</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.554487532004714e-05</v>
+        <v>0.0005731799174100161</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0001327267527813092</v>
+        <v>0.0002880983520299196</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.824079461395741e-05</v>
+        <v>0.0001802080514607951</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001119623557315208</v>
+        <v>3.214381285943091e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.803139694966376e-05</v>
+        <v>0.000123937294119969</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0001971400051843375</v>
+        <v>0.0003521319886203855</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0001861787895904854</v>
+        <v>0.0005525387241505086</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0001304309989791363</v>
+        <v>0.0004458644834812731</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0001160081155830994</v>
+        <v>0.0006447138730436563</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0001079818466678262</v>
+        <v>0.0002857621584553272</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.727547148941085e-05</v>
+        <v>3.450936856097542e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.146672886738088e-05</v>
+        <v>3.245593688916415e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>7.012748392298818e-05</v>
+        <v>0.000395533163100481</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.880415013351012e-05</v>
+        <v>0.0001305735640926287</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.260830585029908e-05</v>
+        <v>0.0002192128304159269</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.139492451329716e-05</v>
+        <v>0.0003097328881267458</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.000301440479233861</v>
+        <v>0.000333363888785243</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.677099473658018e-06</v>
+        <v>0.003182615386322141</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0003678942448459566</v>
+        <v>0.0003864712780341506</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0001559408847242594</v>
+        <v>0.0002641796891111881</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.921932718891185e-05</v>
+        <v>2.365249201830011e-05</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.0001746959896991029</v>
+        <v>0.0004118328506592661</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.998184027092066e-05</v>
+        <v>0.000134295187308453</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0001031496867653914</v>
+        <v>0.0004123685939703137</v>
       </c>
       <c r="BB6" t="n">
-        <v>7.118322537280619e-05</v>
+        <v>3.930991806555539e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0001803554914658889</v>
+        <v>0.0001057454792317003</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.190471397829242e-05</v>
+        <v>0.0008944095461629331</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.0003007065679412335</v>
+        <v>0.0006433956441469491</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.846417944761924e-05</v>
+        <v>0.0001300699805142358</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.461907130666077e-05</v>
+        <v>0.001825488172471523</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.146610884461552e-05</v>
+        <v>0.001394240185618401</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0001337150170002133</v>
+        <v>0.000483026058645919</v>
       </c>
       <c r="BJ6" t="n">
-        <v>9.821778803598136e-05</v>
+        <v>0.0002273624122608453</v>
       </c>
       <c r="BK6" t="n">
-        <v>9.220805077347904e-05</v>
+        <v>7.852190174162388e-05</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.385276431799866e-05</v>
+        <v>0.0005408841534517705</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.799642556463368e-05</v>
+        <v>0.000539666973054409</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0001601737167220563</v>
+        <v>0.0003420652647037059</v>
       </c>
       <c r="BO6" t="n">
-        <v>8.280597103293985e-05</v>
+        <v>0.0001029695267789066</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.0001794160198187456</v>
+        <v>0.0004902959335595369</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.53108048834838e-05</v>
+        <v>0.0003875484107993543</v>
       </c>
       <c r="BR6" t="n">
-        <v>4.068121415912174e-05</v>
+        <v>0.0002600915031507611</v>
       </c>
       <c r="BS6" t="n">
-        <v>6.315450445981696e-05</v>
+        <v>0.0001714697282295674</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.060677045141347e-05</v>
+        <v>0.0003293939225841314</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0002318017068319023</v>
+        <v>0.0002354987227590755</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.139482967322692e-05</v>
+        <v>0.001720362808555365</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0001849732943810523</v>
+        <v>0.0003350256592966616</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0001093459650292061</v>
+        <v>0.0003445131878834218</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.333668352453969e-06</v>
+        <v>3.374738298589364e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.0001664454757701606</v>
+        <v>9.028289059642702e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>5.568013875745237e-05</v>
+        <v>2.138526178896427e-05</v>
       </c>
       <c r="CB6" t="n">
-        <v>3.64264014933724e-05</v>
+        <v>0.0001570449821883813</v>
       </c>
       <c r="CC6" t="n">
-        <v>7.079724309733137e-05</v>
+        <v>0.0001655405649216846</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.0001308537466684356</v>
+        <v>2.870621392503381e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0001404182985424995</v>
+        <v>0.0008078744285739958</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0001834517024690285</v>
+        <v>0.0001724441826809198</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.726702768995892e-05</v>
+        <v>0.0003326060832478106</v>
       </c>
       <c r="CH6" t="n">
-        <v>8.019707820494659e-06</v>
+        <v>6.588920950889587e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>6.843713345006108e-05</v>
+        <v>0.000268264178885147</v>
       </c>
       <c r="CJ6" t="n">
-        <v>5.723304639104754e-05</v>
+        <v>0.0003959050518460572</v>
       </c>
       <c r="CK6" t="n">
-        <v>4.87517099827528e-05</v>
+        <v>0.0001023820586851798</v>
       </c>
       <c r="CL6" t="n">
-        <v>6.338307684927713e-06</v>
+        <v>6.417458644136786e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>2.058850623143371e-05</v>
+        <v>0.0009393998188897967</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0001973600737983361</v>
+        <v>0.0004457730101421475</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.220772876171395e-05</v>
+        <v>1.041983705363236e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0001026348036248237</v>
+        <v>0.0005549558554776013</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0001152378608821891</v>
+        <v>0.0005298240575939417</v>
       </c>
       <c r="CR6" t="n">
-        <v>3.544482024153695e-05</v>
+        <v>0.0001627148303668946</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.241667061753105e-05</v>
+        <v>0.0009976556757465005</v>
       </c>
       <c r="CT6" t="n">
-        <v>7.674178050365299e-06</v>
+        <v>0.0008850981248542666</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0001441378408344463</v>
+        <v>4.20059914176818e-05</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0001121958921430632</v>
+        <v>1.727818016661331e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.0001147170478361659</v>
+        <v>0.0007404923089779913</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.0001897121255751699</v>
+        <v>0.0002105844032485038</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.761216117301956e-05</v>
+        <v>0.0004847095697186887</v>
       </c>
       <c r="CZ6" t="n">
-        <v>7.068992272252217e-05</v>
+        <v>3.428659329074435e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.293447950156406e-05</v>
+        <v>0.0003655944019556046</v>
       </c>
       <c r="DB6" t="n">
-        <v>6.208158447407186e-05</v>
+        <v>0.0003385872114449739</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.094990850309841e-05</v>
+        <v>7.347343489527702e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>7.738997737760656e-06</v>
+        <v>5.300988414091989e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>9.298055374529213e-05</v>
+        <v>0.0003579319454729557</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0002449386811349541</v>
+        <v>0.0008135025855153799</v>
       </c>
       <c r="DG6" t="n">
-        <v>4.303570676711388e-06</v>
+        <v>0.0002078881370835006</v>
       </c>
       <c r="DH6" t="n">
-        <v>4.393143171910197e-06</v>
+        <v>0.0008379924693144858</v>
       </c>
       <c r="DI6" t="n">
-        <v>6.458001007558778e-05</v>
+        <v>0.000978715717792511</v>
       </c>
       <c r="DJ6" t="n">
-        <v>4.786844874615781e-05</v>
+        <v>0.0002825289848260581</v>
       </c>
       <c r="DK6" t="n">
-        <v>3.775380537263118e-05</v>
+        <v>2.353233867324889e-05</v>
       </c>
       <c r="DL6" t="n">
-        <v>7.20391544746235e-05</v>
+        <v>0.0002615353441797197</v>
       </c>
       <c r="DM6" t="n">
-        <v>8.531376806786284e-05</v>
+        <v>0.0003964609350077808</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.610786785022356e-05</v>
+        <v>1.045045792125165e-06</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0001914286112878472</v>
+        <v>0.000199180212803185</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.728430601768196e-05</v>
+        <v>0.0004630188923329115</v>
       </c>
       <c r="DQ6" t="n">
-        <v>3.410784484003671e-05</v>
+        <v>0.0001436084567103535</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.933428550022654e-05</v>
+        <v>0.0003760116815101355</v>
       </c>
       <c r="DS6" t="n">
-        <v>3.399187698960304e-05</v>
+        <v>0.0004390738904476166</v>
       </c>
       <c r="DT6" t="n">
-        <v>3.730391836143099e-05</v>
+        <v>0.0002998476848006248</v>
       </c>
       <c r="DU6" t="n">
-        <v>8.207897735701408e-06</v>
+        <v>0.0002458750095684081</v>
       </c>
       <c r="DV6" t="n">
-        <v>6.901424785610288e-05</v>
+        <v>0.0001713598321657628</v>
       </c>
       <c r="DW6" t="n">
-        <v>5.116998727316968e-05</v>
+        <v>0.000178265618160367</v>
       </c>
       <c r="DX6" t="n">
-        <v>8.85033659869805e-05</v>
+        <v>0.0004353183321654797</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.642321331019048e-05</v>
+        <v>7.10801177774556e-05</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.189006979984697e-05</v>
+        <v>0.0002140381839126348</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0001237933611264452</v>
+        <v>0.000128076906548813</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.525811396481004e-06</v>
+        <v>0.0001500280341133475</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.652860737522133e-05</v>
+        <v>0.0001625186414457858</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0001325058401562274</v>
+        <v>0.0006316484068520367</v>
       </c>
       <c r="EE6" t="n">
-        <v>4.779274604516104e-05</v>
+        <v>0.0001319856237387285</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0002320430940017104</v>
+        <v>9.062456229003146e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>9.706401760922745e-05</v>
+        <v>0.000841464614495635</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.0001920607464853674</v>
+        <v>8.780854113865644e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>4.566634015645832e-05</v>
+        <v>0.0001467073889216408</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.326754863839597e-05</v>
+        <v>5.231264731264673e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.00012265941768419</v>
+        <v>0.0002606102498248219</v>
       </c>
       <c r="EL6" t="n">
-        <v>4.145161074120551e-05</v>
+        <v>0.0003258554497733712</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.0001156095167971216</v>
+        <v>0.0002581375010777265</v>
       </c>
       <c r="EN6" t="n">
-        <v>8.055382204474881e-05</v>
+        <v>7.715347601333633e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.924162592738867e-05</v>
+        <v>9.837918332777917e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>7.18268784112297e-05</v>
+        <v>0.0005129871424287558</v>
       </c>
       <c r="EQ6" t="n">
-        <v>7.158567314036191e-05</v>
+        <v>0.0003012271190527827</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.851815042959061e-05</v>
+        <v>0.0001829946122597903</v>
       </c>
       <c r="ES6" t="n">
-        <v>4.340095620136708e-05</v>
+        <v>0.0001080279762391001</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.0001230047346325591</v>
+        <v>0.0003928482765331864</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.0001144872876466252</v>
+        <v>0.0002050250332104042</v>
       </c>
       <c r="EV6" t="n">
-        <v>5.56299855816178e-05</v>
+        <v>0.0003855999966617674</v>
       </c>
       <c r="EW6" t="n">
-        <v>7.071042637107894e-05</v>
+        <v>0.0005410747835412621</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.0001230987400049344</v>
+        <v>0.000104258579085581</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.0001056093678926118</v>
+        <v>0.0007088562124408782</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.0001913276209961623</v>
+        <v>8.531122148269787e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.497809873602819e-05</v>
+        <v>0.0003028867358807474</v>
       </c>
       <c r="FB6" t="n">
-        <v>3.450622170930728e-05</v>
+        <v>2.975588540721219e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.161424163205083e-05</v>
+        <v>0.0003933427215088159</v>
       </c>
       <c r="FD6" t="n">
-        <v>6.770089385099709e-05</v>
+        <v>0.0003495762648526579</v>
       </c>
       <c r="FE6" t="n">
-        <v>4.143715341342613e-05</v>
+        <v>6.293309706961736e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.937626075232401e-05</v>
+        <v>4.039522900711745e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>6.452317757066339e-05</v>
+        <v>5.788075213786215e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.897988633776549e-05</v>
+        <v>0.0002519759582355618</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.0001301509328186512</v>
+        <v>0.0004472840228118002</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.0001081654409063049</v>
+        <v>0.00101405696477741</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0001504799729445949</v>
+        <v>9.499092993792146e-05</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.0001962045062100515</v>
+        <v>0.0003116634325124323</v>
       </c>
       <c r="FM6" t="n">
-        <v>3.563884456525557e-05</v>
+        <v>2.97964179480914e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.336968100280501e-05</v>
+        <v>4.149097367189825e-05</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.0001008374529192224</v>
+        <v>0.0005382498493418097</v>
       </c>
       <c r="FP6" t="n">
-        <v>5.319860065355897e-06</v>
+        <v>0.000528039294295013</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.0004295315011404455</v>
+        <v>0.0009354888461530209</v>
       </c>
       <c r="FR6" t="n">
-        <v>6.75376650178805e-05</v>
+        <v>0.0001835601724451408</v>
       </c>
       <c r="FS6" t="n">
-        <v>7.727379124844447e-05</v>
+        <v>0.0005532417562790215</v>
       </c>
       <c r="FT6" t="n">
-        <v>8.612182864453644e-05</v>
+        <v>8.933589560911059e-05</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.0001035570239764638</v>
+        <v>3.51634735125117e-05</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.078372952179052e-05</v>
+        <v>0.0002107370237354189</v>
       </c>
       <c r="FW6" t="n">
-        <v>7.694744999753311e-05</v>
+        <v>0.0006421430152840912</v>
       </c>
       <c r="FX6" t="n">
-        <v>4.195287328911945e-05</v>
+        <v>0.0001045713433995843</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0001062974915839732</v>
+        <v>0.0006659432547166944</v>
       </c>
       <c r="FZ6" t="n">
-        <v>7.615780486958101e-05</v>
+        <v>0.0001275732065550983</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.855278060247656e-05</v>
+        <v>2.023225897573866e-05</v>
       </c>
       <c r="GB6" t="n">
-        <v>7.213202479761094e-07</v>
+        <v>3.750919131562114e-05</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.874126559821889e-05</v>
+        <v>8.582639566157013e-06</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.000206772587262094</v>
+        <v>0.0001667873875703663</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.290719956159592e-05</v>
+        <v>0.0007875175797380507</v>
       </c>
       <c r="GF6" t="n">
-        <v>4.411372356116772e-05</v>
+        <v>0.0004527908167801797</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.295084050274454e-05</v>
+        <v>0.0003413668018765748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0003188565606251359</v>
+        <v>2.473968606864219e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001350115198874846</v>
+        <v>1.60379186127102e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>2.233502164017409e-05</v>
+        <v>1.617454245206318e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001449751434847713</v>
+        <v>8.862977665557992e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>9.628461702959612e-05</v>
+        <v>4.74915987069835e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>2.647362271090969e-05</v>
+        <v>3.770798457480851e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001345549244433641</v>
+        <v>2.566685850524664e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>2.367783235968091e-05</v>
+        <v>2.518821702324203e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>3.587599712773226e-05</v>
+        <v>5.963802323094569e-07</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002849809534382075</v>
+        <v>3.927023044525413e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>7.389845268335193e-05</v>
+        <v>1.288638668484055e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>5.019504533265717e-05</v>
+        <v>9.077858749151346e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001246548781637102</v>
+        <v>5.841744496137835e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0001477696932852268</v>
+        <v>4.440377324499423e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>4.02598743676208e-06</v>
+        <v>6.49892353976611e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0001561202807351947</v>
+        <v>2.228272933280095e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.621506251278333e-06</v>
+        <v>3.277788209743449e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>5.916321606491692e-05</v>
+        <v>1.285629878111649e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>9.934283298207447e-07</v>
+        <v>1.529749624751275e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>1.675423118285835e-05</v>
+        <v>2.325604100406053e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>9.77582749328576e-06</v>
+        <v>4.21071234768533e-07</v>
       </c>
       <c r="V7" t="n">
-        <v>1.05445124063408e-05</v>
+        <v>1.696159188213642e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.074830288416706e-05</v>
+        <v>6.918968153968308e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>6.67082622385351e-06</v>
+        <v>1.665931904426543e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.804366911528632e-05</v>
+        <v>2.002929932132247e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.764765617437661e-05</v>
+        <v>2.098821596518974e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.670452653954271e-06</v>
+        <v>2.230214931842056e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.858311745512765e-05</v>
+        <v>5.101479700897471e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.418884949089261e-05</v>
+        <v>2.948020210169489e-07</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.582668664923403e-05</v>
+        <v>3.650017106338055e-07</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.293511715834029e-05</v>
+        <v>2.926133788605512e-07</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.662004953890573e-05</v>
+        <v>1.784094223467036e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.638935620780103e-05</v>
+        <v>1.275561061220287e-07</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.924755431711674e-06</v>
+        <v>6.148020474938676e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.262019840301946e-05</v>
+        <v>1.19103617635119e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.0234383555362e-05</v>
+        <v>8.176878623089578e-07</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.557856275117956e-05</v>
+        <v>1.636162096474436e-06</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.91954474960221e-05</v>
+        <v>1.875494035630254e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.490444421709981e-05</v>
+        <v>6.685794460281613e-07</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.670973092084751e-05</v>
+        <v>3.454580621564673e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.527772474219091e-05</v>
+        <v>8.010966325855406e-07</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.366867672913941e-05</v>
+        <v>2.285637492605019e-07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9.580384357832372e-06</v>
+        <v>7.703636697442562e-07</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.687944859440904e-05</v>
+        <v>2.167076615933183e-07</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.355236342235003e-06</v>
+        <v>1.23807751606364e-06</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0001335205452051014</v>
+        <v>7.404030384350335e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.018207280547358e-05</v>
+        <v>9.725540621730033e-06</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.06096341976081e-06</v>
+        <v>5.735145691687649e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.826970350928605e-05</v>
+        <v>3.700117531479918e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.874880035757087e-05</v>
+        <v>1.948364115378354e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>2.671342735993676e-05</v>
+        <v>6.836600050519337e-07</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.085966298182029e-05</v>
+        <v>1.132871716436057e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.779207741492428e-05</v>
+        <v>7.287331982297474e-07</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.866682214313187e-05</v>
+        <v>2.149378360627452e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0001022379583446309</v>
+        <v>1.508268042016425e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.453107067092787e-06</v>
+        <v>3.163640258208034e-06</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.198603215219919e-05</v>
+        <v>4.532842922344571e-06</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.973889650093042e-06</v>
+        <v>7.661902827749145e-07</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.675641710287891e-05</v>
+        <v>3.512589046295034e-06</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.644396772666369e-06</v>
+        <v>2.056968696706463e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>6.880001456011087e-05</v>
+        <v>6.619936812057858e-07</v>
       </c>
       <c r="BJ7" t="n">
-        <v>8.442340913461521e-05</v>
+        <v>3.24725556311023e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.263830083393259e-06</v>
+        <v>7.264159194164677e-07</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.098786651709815e-05</v>
+        <v>1.009026618703501e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>4.682577127823606e-05</v>
+        <v>2.181253421440488e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>5.009934284316842e-06</v>
+        <v>2.091235955958837e-06</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.346946687088348e-05</v>
+        <v>5.499587700796837e-07</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.844063965312671e-05</v>
+        <v>1.210435584653169e-06</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.046851250270265e-06</v>
+        <v>7.145866902646958e-07</v>
       </c>
       <c r="BR7" t="n">
-        <v>3.799173646257259e-05</v>
+        <v>8.395041959374794e-07</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.251384310307913e-05</v>
+        <v>3.828895955848566e-07</v>
       </c>
       <c r="BT7" t="n">
-        <v>6.793771717639174e-06</v>
+        <v>2.601594246698369e-07</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.000107015366666019</v>
+        <v>2.192300314618478e-07</v>
       </c>
       <c r="BV7" t="n">
-        <v>9.326849976787344e-06</v>
+        <v>5.329377017915249e-06</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.623135878820904e-05</v>
+        <v>1.753739411469724e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>7.690678467042744e-05</v>
+        <v>2.314861376362387e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>4.830471516470425e-05</v>
+        <v>6.801162726333132e-07</v>
       </c>
       <c r="BZ7" t="n">
-        <v>3.898084742104402e-06</v>
+        <v>7.935578878459637e-07</v>
       </c>
       <c r="CA7" t="n">
-        <v>2.472613596182782e-05</v>
+        <v>1.849291948019527e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.52368857015972e-05</v>
+        <v>3.70299858332146e-07</v>
       </c>
       <c r="CC7" t="n">
-        <v>2.320214116480201e-05</v>
+        <v>1.490058593844878e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>6.042790846549906e-05</v>
+        <v>1.461108922740095e-08</v>
       </c>
       <c r="CE7" t="n">
-        <v>6.143761129351333e-05</v>
+        <v>2.563821453804849e-06</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.056659039022634e-05</v>
+        <v>1.683616574155167e-06</v>
       </c>
       <c r="CG7" t="n">
-        <v>3.257702337577939e-05</v>
+        <v>8.471540127175103e-07</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.54135559569113e-05</v>
+        <v>3.978788640779385e-07</v>
       </c>
       <c r="CI7" t="n">
-        <v>1.49056097598077e-06</v>
+        <v>1.077976662600122e-06</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.688476160983555e-05</v>
+        <v>2.416346092104504e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>4.689522484113695e-06</v>
+        <v>2.882105718526873e-07</v>
       </c>
       <c r="CL7" t="n">
-        <v>4.400109901325777e-06</v>
+        <v>1.387144720865763e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.58801722136559e-05</v>
+        <v>2.680121269804658e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>5.237899131316226e-06</v>
+        <v>2.529210973989393e-07</v>
       </c>
       <c r="CO7" t="n">
-        <v>1.046028410200961e-05</v>
+        <v>7.390124210360227e-07</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.498662095400505e-05</v>
+        <v>1.992484385482385e-06</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.875805123243481e-05</v>
+        <v>1.889996497084212e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.260829048987944e-05</v>
+        <v>5.347551450540777e-07</v>
       </c>
       <c r="CS7" t="n">
-        <v>3.369826799826114e-06</v>
+        <v>3.00157967103587e-06</v>
       </c>
       <c r="CT7" t="n">
-        <v>3.833825030596927e-05</v>
+        <v>1.946629254234722e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>9.444500392419286e-06</v>
+        <v>5.041899839852704e-07</v>
       </c>
       <c r="CV7" t="n">
-        <v>4.694930976256728e-05</v>
+        <v>4.325052316289657e-08</v>
       </c>
       <c r="CW7" t="n">
-        <v>6.195119203766808e-05</v>
+        <v>2.308157718289294e-06</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.139267598977312e-05</v>
+        <v>1.655009668866114e-06</v>
       </c>
       <c r="CY7" t="n">
-        <v>2.452230364724528e-05</v>
+        <v>1.814695792745624e-06</v>
       </c>
       <c r="CZ7" t="n">
-        <v>2.299543666595127e-06</v>
+        <v>4.470023213798413e-07</v>
       </c>
       <c r="DA7" t="n">
-        <v>3.313833303764113e-06</v>
+        <v>1.139839582720015e-06</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.98070863209432e-05</v>
+        <v>4.731039666694414e-07</v>
       </c>
       <c r="DC7" t="n">
-        <v>9.57699739956297e-07</v>
+        <v>6.844252880000568e-07</v>
       </c>
       <c r="DD7" t="n">
-        <v>6.008862328599207e-06</v>
+        <v>1.018647253658855e-06</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.046175657393178e-05</v>
+        <v>1.153488028649008e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>9.089808008866385e-05</v>
+        <v>1.275940235245798e-06</v>
       </c>
       <c r="DG7" t="n">
-        <v>3.882320743286982e-05</v>
+        <v>2.632446012285072e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>5.102319846628234e-06</v>
+        <v>7.14904081178247e-06</v>
       </c>
       <c r="DI7" t="n">
-        <v>9.792581295187119e-06</v>
+        <v>1.431511009286623e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.324089655303396e-05</v>
+        <v>1.172403585769644e-06</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.818793680286035e-05</v>
+        <v>5.162905836186837e-07</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.915143730002455e-05</v>
+        <v>1.560949840495596e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.939586192951538e-05</v>
+        <v>3.438133830968582e-07</v>
       </c>
       <c r="DN7" t="n">
-        <v>8.175548828148749e-06</v>
+        <v>6.692298484267667e-07</v>
       </c>
       <c r="DO7" t="n">
-        <v>4.51982778031379e-05</v>
+        <v>1.127834252656612e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>2.56710009125527e-05</v>
+        <v>1.487938106947695e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.483150572312297e-05</v>
+        <v>2.305656892076513e-07</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.841248533513863e-05</v>
+        <v>5.152327275936841e-08</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.966456875379663e-05</v>
+        <v>1.072310965355427e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.020231138681993e-05</v>
+        <v>1.336472337243322e-07</v>
       </c>
       <c r="DU7" t="n">
-        <v>2.943967228929978e-05</v>
+        <v>5.138930418979726e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>8.923370842239819e-06</v>
+        <v>2.386621190453297e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>1.688172960712109e-05</v>
+        <v>4.710693133347377e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.939536898338702e-05</v>
+        <v>2.075582642646623e-06</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.062955900328234e-05</v>
+        <v>2.319155555596808e-06</v>
       </c>
       <c r="DZ7" t="n">
-        <v>5.100456291984301e-06</v>
+        <v>3.477321399714128e-07</v>
       </c>
       <c r="EA7" t="n">
-        <v>4.22907032771036e-05</v>
+        <v>9.683685675554443e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>1.597985465195961e-05</v>
+        <v>2.11453766496561e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.394956780131906e-05</v>
+        <v>2.434265411466185e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>6.357218080665916e-05</v>
+        <v>5.43406997621787e-07</v>
       </c>
       <c r="EE7" t="n">
-        <v>9.971038707590196e-06</v>
+        <v>5.190628939999442e-07</v>
       </c>
       <c r="EF7" t="n">
-        <v>9.871323709376156e-05</v>
+        <v>1.197243250317115e-06</v>
       </c>
       <c r="EG7" t="n">
-        <v>8.981369319371879e-05</v>
+        <v>1.879503997770371e-06</v>
       </c>
       <c r="EH7" t="n">
-        <v>2.570476135588251e-05</v>
+        <v>1.014123427012237e-06</v>
       </c>
       <c r="EI7" t="n">
-        <v>4.96218963235151e-05</v>
+        <v>6.995331887083012e-07</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.816861913539469e-05</v>
+        <v>3.89307558634755e-07</v>
       </c>
       <c r="EK7" t="n">
-        <v>8.841408998705447e-06</v>
+        <v>9.957029760698788e-07</v>
       </c>
       <c r="EL7" t="n">
-        <v>7.418896075250814e-06</v>
+        <v>3.646493951237062e-07</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.196525565523189e-05</v>
+        <v>7.24413496300258e-07</v>
       </c>
       <c r="EN7" t="n">
-        <v>8.598744898336008e-07</v>
+        <v>6.898756623741065e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>1.629136932024267e-05</v>
+        <v>1.258603958831372e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>6.678371573798358e-05</v>
+        <v>3.747557855149353e-07</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.111479943778249e-06</v>
+        <v>1.981245304705226e-06</v>
       </c>
       <c r="ER7" t="n">
-        <v>3.122007001366001e-06</v>
+        <v>3.618654318415793e-07</v>
       </c>
       <c r="ES7" t="n">
-        <v>2.17093347600894e-05</v>
+        <v>8.946134357756819e-07</v>
       </c>
       <c r="ET7" t="n">
-        <v>6.98137500876328e-06</v>
+        <v>7.949710152388434e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>2.751375541265588e-05</v>
+        <v>1.229654458256846e-06</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.232688191521447e-06</v>
+        <v>3.092486622335855e-06</v>
       </c>
       <c r="EW7" t="n">
-        <v>1.318494014412863e-05</v>
+        <v>4.956636416864058e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>5.033695924794301e-05</v>
+        <v>2.918382620009652e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>5.036861693952233e-05</v>
+        <v>2.225431444458081e-06</v>
       </c>
       <c r="EZ7" t="n">
-        <v>1.632833300391212e-05</v>
+        <v>1.416443865309702e-06</v>
       </c>
       <c r="FA7" t="n">
-        <v>2.975110692204908e-05</v>
+        <v>1.234450223819294e-06</v>
       </c>
       <c r="FB7" t="n">
-        <v>3.468698650976876e-06</v>
+        <v>2.044656355337793e-07</v>
       </c>
       <c r="FC7" t="n">
-        <v>6.577994554390898e-06</v>
+        <v>1.026642280521628e-06</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.600974039523862e-05</v>
+        <v>7.284324397005548e-07</v>
       </c>
       <c r="FE7" t="n">
-        <v>6.534005478897598e-06</v>
+        <v>2.232308844440922e-07</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.908764488689485e-07</v>
+        <v>1.446797114112996e-06</v>
       </c>
       <c r="FG7" t="n">
-        <v>3.149573967675678e-05</v>
+        <v>1.385362907058152e-06</v>
       </c>
       <c r="FH7" t="n">
-        <v>7.748268217255827e-06</v>
+        <v>5.388611512557873e-08</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.028404494718416e-05</v>
+        <v>2.297442733834032e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>2.402554673608392e-05</v>
+        <v>1.870413825599826e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>5.007205982110463e-05</v>
+        <v>8.475319646095159e-08</v>
       </c>
       <c r="FL7" t="n">
-        <v>2.457679875078611e-05</v>
+        <v>1.051657250172866e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>2.014503115788102e-05</v>
+        <v>1.892810104209275e-07</v>
       </c>
       <c r="FN7" t="n">
-        <v>9.566791050019674e-06</v>
+        <v>2.483593561919406e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>7.020132215984631e-06</v>
+        <v>8.1107077676279e-07</v>
       </c>
       <c r="FP7" t="n">
-        <v>4.115429328521714e-05</v>
+        <v>6.875082476653915e-07</v>
       </c>
       <c r="FQ7" t="n">
-        <v>9.316153591498733e-05</v>
+        <v>9.372926683681726e-07</v>
       </c>
       <c r="FR7" t="n">
-        <v>2.347642657696269e-05</v>
+        <v>8.987927913040039e-07</v>
       </c>
       <c r="FS7" t="n">
-        <v>6.420807039830834e-06</v>
+        <v>2.776978362817317e-07</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.16006067401031e-05</v>
+        <v>4.311190423322842e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.985214814543724e-05</v>
+        <v>6.210510719029116e-07</v>
       </c>
       <c r="FV7" t="n">
-        <v>2.539385241107084e-05</v>
+        <v>9.259276794182369e-07</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.200085716845933e-05</v>
+        <v>1.408302864547295e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.181610514322529e-05</v>
+        <v>1.071268570740358e-06</v>
       </c>
       <c r="FY7" t="n">
-        <v>4.211448322166689e-05</v>
+        <v>2.904967914219014e-06</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.58911534526851e-05</v>
+        <v>1.450832087357412e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>3.249273140681908e-05</v>
+        <v>1.629795320923222e-08</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.183455555699766e-05</v>
+        <v>3.769535510400601e-07</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.248871194547974e-05</v>
+        <v>1.527874360363057e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>5.588196017924929e-06</v>
+        <v>1.741855271575332e-06</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.507745037088171e-05</v>
+        <v>3.906287929567043e-06</v>
       </c>
       <c r="GF7" t="n">
-        <v>3.768342594412388e-06</v>
+        <v>5.338393975762301e-07</v>
       </c>
       <c r="GG7" t="n">
-        <v>5.480031177285127e-06</v>
+        <v>1.845956376200775e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0153704946860671</v>
+        <v>0.009752591140568256</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0002503041177988052</v>
+        <v>0.1176171824336052</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02328568883240223</v>
+        <v>0.0110034141689539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003794778138399124</v>
+        <v>0.03623878583312035</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01031543128192425</v>
+        <v>0.01331700012087822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001019515097141266</v>
+        <v>0.0779438242316246</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004251577891409397</v>
+        <v>0.004343853332102299</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00301750167272985</v>
+        <v>0.03503170609474182</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004667480010539293</v>
+        <v>0.01571784727275372</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01550160255283117</v>
+        <v>0.01743549481034279</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002669182140380144</v>
+        <v>0.1105065867304802</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0219343826174736</v>
+        <v>0.001053359243087471</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001711810589767992</v>
+        <v>0.02984397113323212</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002476651454344392</v>
+        <v>0.002712178975343704</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001004827325232327</v>
+        <v>0.06758450716733932</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002457875059917569</v>
+        <v>0.005171092227101326</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00797575805336237</v>
+        <v>0.009712258353829384</v>
       </c>
       <c r="R8" t="n">
-        <v>0.008191203698515892</v>
+        <v>0.01734331622719765</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0006051388336345553</v>
+        <v>0.001502708531916142</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007763583213090897</v>
+        <v>0.009227295406162739</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0005205131019465625</v>
+        <v>0.0008289823308587074</v>
       </c>
       <c r="V8" t="n">
-        <v>0.003167718416079879</v>
+        <v>0.008766930550336838</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001376473228447139</v>
+        <v>0.01618906855583191</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0004525927943177521</v>
+        <v>0.004489169921725988</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.00158971396740526</v>
+        <v>0.003956917207688093</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004785897210240364</v>
+        <v>0.01912323758006096</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.375110337510705e-05</v>
+        <v>0.0119464760646224</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0001880441413959488</v>
+        <v>0.004908951930701733</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0004597578663378954</v>
+        <v>0.00693833502009511</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001486529130488634</v>
+        <v>0.0008440574747510254</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002154465531930327</v>
+        <v>0.0006116093136370182</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0008785537211224437</v>
+        <v>0.002297129947692156</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.001684734947048128</v>
+        <v>0.003318349830806255</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.001936887158080935</v>
+        <v>0.0003777567762881517</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.006521377246826887</v>
+        <v>0.00436832569539547</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.005386023782193661</v>
+        <v>0.001542880432680249</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.00417856452986598</v>
+        <v>0.01330483332276344</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.005811331793665886</v>
+        <v>0.009425690397620201</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.003340320428833365</v>
+        <v>0.001346716657280922</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.00468734372407198</v>
+        <v>0.007174809463322163</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.000923920248169452</v>
+        <v>0.004900408908724785</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.002485516481101513</v>
+        <v>0.01714728400111198</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0004547531716525555</v>
+        <v>0.005880817770957947</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.00127546489238739</v>
+        <v>0.00747615797445178</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0002543543232604861</v>
+        <v>0.01204243954271078</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.006985217332839966</v>
+        <v>0.007405860815197229</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.006658054422587156</v>
+        <v>0.06347469240427017</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.01209497824311256</v>
+        <v>0.008691910654306412</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.002859547734260559</v>
+        <v>0.01066200248897076</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.001755708595737815</v>
+        <v>0.004946730099618435</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.006002029869705439</v>
+        <v>0.03921692073345184</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.001934993313625455</v>
+        <v>0.01810683868825436</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002207179088145494</v>
+        <v>0.01173321064561605</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0006688084686174989</v>
+        <v>0.01871565170586109</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.00164170959033072</v>
+        <v>0.004313353449106216</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0008416303899139166</v>
+        <v>0.0300352405756712</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.006377956829965115</v>
+        <v>0.02945238538086414</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0008207560167647898</v>
+        <v>0.003645600285381079</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.006969524547457695</v>
+        <v>0.008094139397144318</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.003037928603589535</v>
+        <v>0.01542952749878168</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.00541869830340147</v>
+        <v>0.008727855980396271</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002911262214183807</v>
+        <v>0.009197385050356388</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.002197909168899059</v>
+        <v>0.01549783162772655</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0003169575647916645</v>
+        <v>0.001923771458677948</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.002391697140410542</v>
+        <v>0.02193686738610268</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.005639874376356602</v>
+        <v>0.0135508356615901</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0005751699209213257</v>
+        <v>0.001501402352005243</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0040669827722013</v>
+        <v>0.01153931114822626</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001177415018901229</v>
+        <v>0.005559909623116255</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.002158551709726453</v>
+        <v>0.006760413758456707</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.003943959251046181</v>
+        <v>0.005313540808856487</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0006438635755330324</v>
+        <v>0.007902760058641434</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.00717859948053956</v>
+        <v>0.002935685217380524</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.001952280406840146</v>
+        <v>0.04128904640674591</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.00677148113027215</v>
+        <v>0.006640354637056589</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.002612212672829628</v>
+        <v>0.004236573353409767</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.001389020471833646</v>
+        <v>0.005157436244189739</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.003424546681344509</v>
+        <v>0.01435357984155416</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0008728382526896894</v>
+        <v>0.00273628206923604</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0007541693630628288</v>
+        <v>0.002074369229376316</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0004116363706998527</v>
+        <v>0.01011229492723942</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.003263197606429458</v>
+        <v>0.001900726230815053</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.004541476722806692</v>
+        <v>0.02006172016263008</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.004309618379920721</v>
+        <v>0.009212272241711617</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0003919713199138641</v>
+        <v>0.0051932567730546</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0009334329515695572</v>
+        <v>0.004244493320584297</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.001057846937328577</v>
+        <v>0.01027830876410007</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0006886761402711272</v>
+        <v>0.007449094671756029</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0008299617329612374</v>
+        <v>0.005443411879241467</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0006748402374796569</v>
+        <v>0.00930605735629797</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0005712916608899832</v>
+        <v>0.02745711430907249</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.003870026674121618</v>
+        <v>0.009794063866138458</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0009141308255493641</v>
+        <v>0.001503584790043533</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.00156510854139924</v>
+        <v>0.0262581929564476</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001284576952457428</v>
+        <v>0.01126722246408463</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0005054366192780435</v>
+        <v>0.02835488505661488</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0007548324065282941</v>
+        <v>0.02128894254565239</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.001462096814066172</v>
+        <v>0.01902240887284279</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.001935828244313598</v>
+        <v>0.008041116409003735</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.003025464946404099</v>
+        <v>0.001581819145940244</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.004478576127439737</v>
+        <v>0.01892919652163982</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.004695629701018333</v>
+        <v>0.009973875246942043</v>
       </c>
       <c r="CY8" t="n">
-        <v>5.598062125500292e-05</v>
+        <v>0.01087765768170357</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.002928002504631877</v>
+        <v>0.003613083157688379</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.001059085945598781</v>
+        <v>0.009001761674880981</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.000381888821721077</v>
+        <v>0.007147864438593388</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0005652385298162699</v>
+        <v>0.01118397153913975</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.000885249930433929</v>
+        <v>0.007215823046863079</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.001053187879733741</v>
+        <v>0.006881051231175661</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.009438986890017986</v>
+        <v>0.02248879708349705</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.003171505173668265</v>
+        <v>7.086006371537223e-05</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.002042099833488464</v>
+        <v>0.02278701588511467</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.001704773865640163</v>
+        <v>0.02556980587542057</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0002436602953821421</v>
+        <v>0.02277810499072075</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0006043656612746418</v>
+        <v>0.006859864108264446</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0004975319607183337</v>
+        <v>0.01430473383516073</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.001930529600940645</v>
+        <v>0.02399269118905067</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0001125950293499045</v>
+        <v>0.004759963601827621</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.004488582722842693</v>
+        <v>0.009959917515516281</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0004295559483580291</v>
+        <v>0.007831376977264881</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0005619804142042994</v>
+        <v>0.007048935629427433</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0004387610533740371</v>
+        <v>0.009458869695663452</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.002963979728519917</v>
+        <v>0.0125341983512044</v>
       </c>
       <c r="DT8" t="n">
-        <v>3.350799670442939e-05</v>
+        <v>0.01195274386554956</v>
       </c>
       <c r="DU8" t="n">
-        <v>5.912617780268192e-06</v>
+        <v>0.007053056731820107</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.001092508668079972</v>
+        <v>0.002646478591486812</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.00122406764421612</v>
+        <v>0.001928719924762845</v>
       </c>
       <c r="DX8" t="n">
-        <v>9.884941391646862e-06</v>
+        <v>0.01462007407099009</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.001589971827343106</v>
+        <v>0.008744800463318825</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.001247864565812051</v>
+        <v>0.007680848240852356</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.003100195666775107</v>
+        <v>0.01313540432602167</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.00176009931601584</v>
+        <v>0.006981985177844763</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0009647708502598107</v>
+        <v>0.003901354735717177</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.004334618337452412</v>
+        <v>0.005167911760509014</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0001741457963362336</v>
+        <v>0.01998599246144295</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.005224238149821758</v>
+        <v>0.01170893013477325</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.003174570621922612</v>
+        <v>0.02135079726576805</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.005016622133553028</v>
+        <v>0.01304016076028347</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.00139853055588901</v>
+        <v>0.002504467265680432</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0004599975654855371</v>
+        <v>0.001019264338538051</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.00486473785713315</v>
+        <v>0.0006030338117852807</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0001782269682735205</v>
+        <v>0.008207526989281178</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.004066424444317818</v>
+        <v>0.003155686194077134</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.001994975376874208</v>
+        <v>0.004511358216404915</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0009879594435915351</v>
+        <v>0.0005672764964401722</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.003654856234788895</v>
+        <v>0.01001353375613689</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0009576505981385708</v>
+        <v>0.005244039930403233</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0001453394652344286</v>
+        <v>0.01167359668761492</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.001694826409220695</v>
+        <v>0.01441450044512749</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.003025781828910112</v>
+        <v>0.002256220206618309</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.002423923462629318</v>
+        <v>0.0230617132037878</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0006503575714305043</v>
+        <v>0.02525861375033855</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.002313988283276558</v>
+        <v>0.0004275057872291654</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.003367615165188909</v>
+        <v>0.003603959921747446</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.00352333695627749</v>
+        <v>0.01781005598604679</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.004492164589464664</v>
+        <v>0.007391038816422224</v>
       </c>
       <c r="FA8" t="n">
-        <v>9.600131306797266e-06</v>
+        <v>0.00443979911506176</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.002300631022080779</v>
+        <v>0.002870753174647689</v>
       </c>
       <c r="FC8" t="n">
-        <v>1.586769940331578e-06</v>
+        <v>0.008202780969440937</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0005461127730086446</v>
+        <v>0.01205866411328316</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.001208285917527974</v>
+        <v>0.008826788514852524</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.001236537587828934</v>
+        <v>0.01110531855374575</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.002288121962919831</v>
+        <v>0.005216150544583797</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0002981717116199434</v>
+        <v>0.006327069830149412</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.003633365035057068</v>
+        <v>0.00941268727183342</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.004209055565297604</v>
+        <v>0.01571594551205635</v>
       </c>
       <c r="FK8" t="n">
-        <v>4.091998562216759e-07</v>
+        <v>0.006304016802459955</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0020934515632689</v>
+        <v>0.00499290507286787</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.001926058670505881</v>
+        <v>0.007213637232780457</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0001892073632916436</v>
+        <v>0.005134713370352983</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.003201121464371681</v>
+        <v>0.004970669746398926</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0003484594635665417</v>
+        <v>0.01211411692202091</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.01123263873159885</v>
+        <v>0.01011715549975634</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.002443661913275719</v>
+        <v>0.02223602496087551</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.001893001142889261</v>
+        <v>0.007285996805876493</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0003609992563724518</v>
+        <v>0.005712189245969057</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.001747991424053907</v>
+        <v>0.01269803754985332</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0009838612750172615</v>
+        <v>0.004455702379345894</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.001232962589710951</v>
+        <v>0.005428890697658062</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.000808608834631741</v>
+        <v>0.00981968455016613</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.001466533518396318</v>
+        <v>0.0158682856708765</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0001024663797579706</v>
+        <v>0.01040805131196976</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0009745567804202437</v>
+        <v>0.007774246390908957</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0005845079431310296</v>
+        <v>0.003830933710560203</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.002989948028698564</v>
+        <v>0.003310920437797904</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.003662068396806717</v>
+        <v>0.007393564097583294</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0006284733535721898</v>
+        <v>0.02208296395838261</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.00133347709197551</v>
+        <v>0.0003983583301305771</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0004115319461561739</v>
+        <v>0.00472016166895628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01543091796338558</v>
+        <v>0.00013454828877002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001972594065591693</v>
+        <v>0.02434697560966015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01828001253306866</v>
+        <v>1.093230093829334e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004338031634688377</v>
+        <v>0.008154284209012985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003173476550728083</v>
+        <v>0.01011898647993803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001527825021184981</v>
+        <v>0.01631893031299114</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003228346118703485</v>
+        <v>0.0009253626340068877</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002806952921673656</v>
+        <v>0.005942605435848236</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006446630693972111</v>
+        <v>0.002425724640488625</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01549165695905685</v>
+        <v>0.002153058303520083</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00188256858382374</v>
+        <v>0.02604266442358494</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01989192515611649</v>
+        <v>0.002483113901689649</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0009634072193875909</v>
+        <v>0.005814370699226856</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003062594216316938</v>
+        <v>0.005319612100720406</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001011358806863427</v>
+        <v>0.01493924763053656</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00365481385961175</v>
+        <v>0.0001194590586237609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.003790936432778835</v>
+        <v>0.003501332830637693</v>
       </c>
       <c r="R9" t="n">
-        <v>0.008510982617735863</v>
+        <v>0.001069237478077412</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0005186385242268443</v>
+        <v>0.00103890779428184</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004568454809486866</v>
+        <v>0.002662984654307365</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0001549824373796582</v>
+        <v>0.001098539214581251</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001030744286254048</v>
+        <v>0.002824567025527358</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001258240197785199</v>
+        <v>0.001996297854930162</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0007213394274003804</v>
+        <v>0.001218332559801638</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001594895147718489</v>
+        <v>0.0002224474737886339</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.003439850639551878</v>
+        <v>0.001560331089422107</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0001681131398072466</v>
+        <v>0.001909558312036097</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0005321168573573232</v>
+        <v>0.001266015460714698</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001159575534984469</v>
+        <v>0.00157278694678098</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0002337813348276541</v>
+        <v>0.003136139130219817</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0007455748855136335</v>
+        <v>0.001421782188117504</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0005901012336835265</v>
+        <v>9.9391327239573e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.001814359100535512</v>
+        <v>0.0003825474996119738</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.001030277577228844</v>
+        <v>0.001973935402929783</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.005143585149198771</v>
+        <v>0.003464783309027553</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.004544144496321678</v>
+        <v>0.001571971690282226</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.003392673097550869</v>
+        <v>0.002527779433876276</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.003038519062101841</v>
+        <v>0.004252198152244091</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.001536384923383594</v>
+        <v>0.00260465731844306</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.002988128457218409</v>
+        <v>0.001345210941508412</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.000829312251880765</v>
+        <v>0.0002360313083045185</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.000849062402267009</v>
+        <v>0.001596729969605803</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.239537757821381e-05</v>
+        <v>2.504704752936959e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0007134464103728533</v>
+        <v>0.001545802457258105</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0002548332558944821</v>
+        <v>0.001348117832094431</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.006473954301327467</v>
+        <v>0.001966215204447508</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.002148265717551112</v>
+        <v>0.01578503474593163</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.00866270437836647</v>
+        <v>0.003806422231718898</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.003369252663105726</v>
+        <v>0.001321960822679102</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.002367029199376702</v>
+        <v>0.001074899802915752</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.004672167357057333</v>
+        <v>0.008002392947673798</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.001583173405379057</v>
+        <v>6.81737728882581e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.002849062904715538</v>
+        <v>0.001456849742680788</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0006495794514194131</v>
+        <v>5.168307689018548e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.002359372796490788</v>
+        <v>0.001311324769631028</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0003094218845944852</v>
+        <v>0.005925057455897331</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.005429017823189497</v>
+        <v>0.004181070253252983</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0001830059627536684</v>
+        <v>0.002240726258605719</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.003748159389942884</v>
+        <v>0.008191689848899841</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.00248854304663837</v>
+        <v>0.007506339810788631</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.002930034650489688</v>
+        <v>0.0004484452656470239</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.002638109726831317</v>
+        <v>0.000896957702934742</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.0005314802983775735</v>
+        <v>0.0005387975834310055</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.0008352883160114288</v>
+        <v>0.002773253712803125</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.000941538077313453</v>
+        <v>0.003718063002452254</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.003875318914651871</v>
+        <v>0.001187262940220535</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0004225402371957898</v>
+        <v>0.0004341613675933331</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.00423269672319293</v>
+        <v>0.0001487643894506618</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.001810590038076043</v>
+        <v>0.0005400781519711018</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.00104833219666034</v>
+        <v>0.001905255019664764</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.002254067920148373</v>
+        <v>0.001348446472547948</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0005602007149718702</v>
+        <v>0.0006826428580097854</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.006271929014474154</v>
+        <v>0.0008548377663828433</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.835411578416824e-05</v>
+        <v>0.00995596032589674</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.003279557451605797</v>
+        <v>0.0008319583721458912</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.002218525856733322</v>
+        <v>0.001572168665006757</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0008879944798536599</v>
+        <v>0.0001461422070860863</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.001831020228564739</v>
+        <v>0.00195536739192903</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.000378458178602159</v>
+        <v>0.0001570007880218327</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0008982822764664888</v>
+        <v>0.0002329292619833723</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.002305534202605486</v>
+        <v>0.001588587299920619</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.003182216547429562</v>
+        <v>0.0002088951296173036</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.003524987259879708</v>
+        <v>0.004138019401580095</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.003842303529381752</v>
+        <v>0.0006702932878397405</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0003119081957265735</v>
+        <v>0.001712844823487103</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0001773024559952319</v>
+        <v>0.0001103139657061547</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.0008949196198955178</v>
+        <v>0.002584339817985892</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.0009186738170683384</v>
+        <v>0.001741227810271084</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0005699291359633207</v>
+        <v>0.0005872623296454549</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0006430919165723026</v>
+        <v>0.0005152971716597676</v>
       </c>
       <c r="CM9" t="n">
-        <v>8.101697312667966e-05</v>
+        <v>0.004764007404446602</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.003355992026627064</v>
+        <v>0.003160039428621531</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0009186228271573782</v>
+        <v>0.0006030828808434308</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.001531311776489019</v>
+        <v>0.002847537398338318</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.003404915099963546</v>
+        <v>0.001213580835610628</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.001071554259397089</v>
+        <v>0.0007862760685384274</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.0005287333624437451</v>
+        <v>0.004991925321519375</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.001555560273118317</v>
+        <v>0.004487641621381044</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.003140276297926903</v>
+        <v>0.002069565933197737</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.002796051790937781</v>
+        <v>2.95388454105705e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.003130064345896244</v>
+        <v>0.003519168123602867</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.004145045764744282</v>
+        <v>0.0005628271028399467</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.75492639048025e-05</v>
+        <v>0.00241574365645647</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.00187841325532645</v>
+        <v>0.0005192665266804397</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0009787903400138021</v>
+        <v>0.002766334917396307</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0008176856208592653</v>
+        <v>0.001599437324330211</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.530428072437644e-05</v>
+        <v>0.0004720619763247669</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.000539219647180289</v>
+        <v>0.0001411699195159599</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.0008803456439636648</v>
+        <v>0.001294292276725173</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.007624908350408077</v>
+        <v>0.003563900478184223</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.00408630445599556</v>
+        <v>0.0008129904745146632</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.001780769787728786</v>
+        <v>0.004932497162371874</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.002379011362791061</v>
+        <v>0.006409991532564163</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0001972133759409189</v>
+        <v>0.001471528201363981</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0004068973939865828</v>
+        <v>0.0006731032044626772</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.002440571319311857</v>
+        <v>3.179244231432676e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.00177235109731555</v>
+        <v>0.003026108257472515</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0001731749507598579</v>
+        <v>0.0001080713118426502</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.004120705183595419</v>
+        <v>0.0003559901379048824</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.001109732664190233</v>
+        <v>0.002016432350501418</v>
       </c>
       <c r="DQ9" t="n">
-        <v>3.328215098008513e-05</v>
+        <v>0.001744127366691828</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0008767575491219759</v>
+        <v>0.0006784264696761966</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.001974918646737933</v>
+        <v>0.001241126796230674</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0005174754769541323</v>
+        <v>7.591821486130357e-05</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0008897884981706738</v>
+        <v>0.0008827490964904428</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0003712219768203795</v>
+        <v>9.605864761397243e-05</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.001898574759252369</v>
+        <v>0.0004870875854976475</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0003195508616045117</v>
+        <v>0.002225231612101197</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0001286380284000188</v>
+        <v>0.0008850935846567154</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0006950348615646362</v>
+        <v>0.001493937685154378</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.001249512657523155</v>
+        <v>0.001440113526768982</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.0006153396097943187</v>
+        <v>0.0009206769755110145</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.001528724562376738</v>
+        <v>0.001200830796733499</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.001993792131543159</v>
+        <v>0.001885435311123729</v>
       </c>
       <c r="EE9" t="n">
-        <v>5.421886453405023e-05</v>
+        <v>0.001129788113757968</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.005304238758981228</v>
+        <v>0.0004582517431117594</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.002167186699807644</v>
+        <v>0.004748517647385597</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.003913368098437786</v>
+        <v>0.000320409337291494</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0004562878748401999</v>
+        <v>0.0002371369191678241</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0001078746281564236</v>
+        <v>0.0004483902885112911</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.003567285137251019</v>
+        <v>0.002622783416882157</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0002595650148577988</v>
+        <v>0.001073385355994105</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.00266317930072546</v>
+        <v>0.001889965613372624</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.001469986047595739</v>
+        <v>0.0005819345824420452</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.001139382715336978</v>
+        <v>0.0004274732200428843</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.001255279523320496</v>
+        <v>0.002036465331912041</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0009296993957832456</v>
+        <v>0.0009308990556746721</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.0004681507998611778</v>
+        <v>0.001485048327594995</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.002079480793327093</v>
+        <v>0.0002288562245666981</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.00217774324119091</v>
+        <v>0.002571301069110632</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.001525239553302526</v>
+        <v>0.002293385565280914</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0004306243790779263</v>
+        <v>0.003460174659267068</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.00129713281057775</v>
+        <v>0.0003312714397907257</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.003134030848741531</v>
+        <v>0.0002726621751207858</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.002761481096968055</v>
+        <v>0.00358064635656774</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.004153619054704905</v>
+        <v>1.405959483236074e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>9.9474738817662e-05</v>
+        <v>0.001524672959931195</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.001158076687715948</v>
+        <v>0.0008418317884206772</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.000120981756481342</v>
+        <v>0.002916100900620222</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.000738783273845911</v>
+        <v>0.001928590820170939</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0007132783066481352</v>
+        <v>0.0001765429769875482</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.0007498194463551044</v>
+        <v>0.0007732697413302958</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.001198098063468933</v>
+        <v>0.00027720961952582</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.000107396423118189</v>
+        <v>0.0007889402331784368</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.00371470907703042</v>
+        <v>0.0007904605008661747</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.001903000520542264</v>
+        <v>0.003204884007573128</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0001215080555994064</v>
+        <v>0.001716805156320333</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.002259355736896396</v>
+        <v>0.0002033742202911526</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.000380680663511157</v>
+        <v>0.0001355433487333357</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.0008201510645449162</v>
+        <v>0.0004227758035995066</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.001842926256358624</v>
+        <v>0.0001275183749385178</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.002339039463549852</v>
+        <v>0.001263735932298005</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.00949513353407383</v>
+        <v>0.00466736126691103</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.001698133535683155</v>
+        <v>0.001062831142917275</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.000829375465400517</v>
+        <v>0.001292412169277668</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0004062042571604252</v>
+        <v>0.003612762782722712</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.001781532657332718</v>
+        <v>0.000292343640467152</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.0004932681331411004</v>
+        <v>0.001063860487192869</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0001644388394197449</v>
+        <v>0.002497198758646846</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0006131158443167806</v>
+        <v>0.0007776624988764524</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.001698921318165958</v>
+        <v>0.003495440352708101</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.001489488990046084</v>
+        <v>0.0001804899075068533</v>
       </c>
       <c r="GA9" t="n">
-        <v>9.782539564184844e-05</v>
+        <v>0.0007767427014186978</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0004512669984251261</v>
+        <v>0.0004353890544734895</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.002039794344455004</v>
+        <v>0.001622195006348193</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.002915175864472985</v>
+        <v>0.002576781203970313</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0007894211448729038</v>
+        <v>0.005157682579010725</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.000285470683593303</v>
+        <v>0.00158224138431251</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0006149799446575344</v>
+        <v>0.001506511238403618</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0798480287194252</v>
+        <v>0.0003225596155971289</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06924329698085785</v>
+        <v>0.1102806031703949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01005560252815485</v>
+        <v>0.002540800953283906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02703036181628704</v>
+        <v>0.07739337533712387</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06384661793708801</v>
+        <v>0.01997094042599201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02468730136752129</v>
+        <v>0.02415628544986248</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1262010037899017</v>
+        <v>0.01355324126780033</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004439322277903557</v>
+        <v>0.01266923919320107</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05923175439238548</v>
+        <v>0.03664301708340645</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06667815893888474</v>
+        <v>0.008693627081811428</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04877277091145515</v>
+        <v>0.09899814426898956</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001734786666929722</v>
+        <v>0.0160228069871664</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02830888144671917</v>
+        <v>0.07104150950908661</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05653613805770874</v>
+        <v>0.02505199797451496</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008566851727664471</v>
+        <v>0.02014086022973061</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0861494392156601</v>
+        <v>0.007861165329813957</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02141450718045235</v>
+        <v>0.01150821428745985</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0712912380695343</v>
+        <v>0.0367414802312851</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02228415198624134</v>
+        <v>0.01712483540177345</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003004157450050116</v>
+        <v>0.01664794981479645</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01620672270655632</v>
+        <v>0.003329872619360685</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005979771725833416</v>
+        <v>0.01559127401560545</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01292917691171169</v>
+        <v>0.02873981185257435</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00216139480471611</v>
+        <v>0.02187981456518173</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04181595891714096</v>
+        <v>0.005592147819697857</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03575155138969421</v>
+        <v>0.01413921546190977</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02166479825973511</v>
+        <v>0.008360534906387329</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02838102728128433</v>
+        <v>0.006262824870646</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0007276623509824276</v>
+        <v>0.009026008658111095</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.003284272272139788</v>
+        <v>0.0003763313870877028</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01332429610192776</v>
+        <v>0.002163509838283062</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02270588278770447</v>
+        <v>0.008280055597424507</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.009134013205766678</v>
+        <v>0.003109314013272524</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.01467182859778404</v>
+        <v>0.0005461545661091805</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02008675038814545</v>
+        <v>0.0248815082013607</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0136730233207345</v>
+        <v>0.02484064549207687</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.009807724505662918</v>
+        <v>0.0001039892667904496</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.02013370208442211</v>
+        <v>0.01278728153556585</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.005857267417013645</v>
+        <v>0.003451685886830091</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002757368609309196</v>
+        <v>0.002779733389616013</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.00209321454167366</v>
+        <v>0.01749135181307793</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01490138750523329</v>
+        <v>0.002004248090088367</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.004038325976580381</v>
+        <v>0.009876063093543053</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.02339709736406803</v>
+        <v>0.01468356978148222</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.002316118683665991</v>
+        <v>0.005827759858220816</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.05237187445163727</v>
+        <v>0.01117242127656937</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01775127835571766</v>
+        <v>0.06280295550823212</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.006312691606581211</v>
+        <v>0.005130819976329803</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.03231702744960785</v>
+        <v>0.03693301975727081</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.06093502789735794</v>
+        <v>0.0345785841345787</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01272623799741268</v>
+        <v>0.01138612255454063</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.005817730911076069</v>
+        <v>0.003460139036178589</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.02617259509861469</v>
+        <v>0.005889724940061569</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.04308020323514938</v>
+        <v>0.02227377519011497</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.02006406523287296</v>
+        <v>0.01224813610315323</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.02697289921343327</v>
+        <v>0.02509380877017975</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.004177502822130919</v>
+        <v>0.006573008839040995</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.01980650424957275</v>
+        <v>0.004896689206361771</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.004816936329007149</v>
+        <v>0.01463914103806019</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.007753611542284489</v>
+        <v>0.00878865085542202</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.05548413097858429</v>
+        <v>0.006453053094446659</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.04956956580281258</v>
+        <v>0.01784418150782585</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.02062818221747875</v>
+        <v>0.003247631248086691</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01565148308873177</v>
+        <v>0.006390747614204884</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.02940689399838448</v>
+        <v>0.01604835130274296</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.01880855672061443</v>
+        <v>0.00543610192835331</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.04405209422111511</v>
+        <v>0.009317565709352493</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.03137887641787529</v>
+        <v>0.02162119187414646</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.002379032084718347</v>
+        <v>0.004184882156550884</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001032737083733082</v>
+        <v>0.006962435785681009</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.01470328029245138</v>
+        <v>0.002761074109002948</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.01247622072696686</v>
+        <v>0.007075971458107233</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.06530272960662842</v>
+        <v>0.01567754335701466</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.008453802205622196</v>
+        <v>0.04389910399913788</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.021211763843894</v>
+        <v>0.004058717284351587</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.01311866007745266</v>
+        <v>0.02539185062050819</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02395866811275482</v>
+        <v>0.005071807187050581</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.00870346836745739</v>
+        <v>0.00640933308750391</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.02498951926827431</v>
+        <v>0.0115591436624527</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.005170528311282396</v>
+        <v>0.009758559055626392</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.01685807108879089</v>
+        <v>0.01657422631978989</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.01405441481620073</v>
+        <v>0.005941148847341537</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.01385759189724922</v>
+        <v>0.01273254863917828</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.009768597781658173</v>
+        <v>0.005234104581177235</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.04672323539853096</v>
+        <v>0.01413883827626705</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.004426233470439911</v>
+        <v>0.003723234869539738</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.003599279560148716</v>
+        <v>0.004473356995731592</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.02307804673910141</v>
+        <v>0.007624505087733269</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.002560808788985014</v>
+        <v>0.0004423577920533717</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.005226558074355125</v>
+        <v>0.002431873697787523</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0387980230152607</v>
+        <v>0.02261845953762531</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.005405865609645844</v>
+        <v>0.001964013325050473</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0003885474288836122</v>
+        <v>0.0007619219832122326</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0007106481352820992</v>
+        <v>0.0128937903791666</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.02925208956003189</v>
+        <v>0.007738944608718157</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.004927325062453747</v>
+        <v>0.002940029604360461</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.02380510419607162</v>
+        <v>0.02254264988005161</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.03241985291242599</v>
+        <v>0.03758225589990616</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.05265586823225021</v>
+        <v>0.003241162514314055</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.01786118373274803</v>
+        <v>0.006570430472493172</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.01390079595148563</v>
+        <v>0.01255148835480213</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01223021186888218</v>
+        <v>0.00505510251969099</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.04283390566706657</v>
+        <v>0.01639693416655064</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.01826875098049641</v>
+        <v>0.00279956916347146</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.003776456695050001</v>
+        <v>0.006871540099382401</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.02209032699465752</v>
+        <v>0.009461104869842529</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.004845353309065104</v>
+        <v>0.002777246758341789</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.003730739466845989</v>
+        <v>0.006081304512917995</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.007737988606095314</v>
+        <v>0.0133975176140666</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0446845181286335</v>
+        <v>0.01853220909833908</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.003238935489207506</v>
+        <v>0.003095035906881094</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.08466873317956924</v>
+        <v>0.02976882457733154</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.005776291713118553</v>
+        <v>0.005618868861347437</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.01260823383927345</v>
+        <v>0.00945111270993948</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.01759481616318226</v>
+        <v>0.0147403422743082</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0006890613585710526</v>
+        <v>0.002078147605061531</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.04606228321790695</v>
+        <v>0.0009610871784389019</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0209552925080061</v>
+        <v>0.01439638994634151</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.01798065565526485</v>
+        <v>0.005278841592371464</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01296213082969189</v>
+        <v>0.003797041019424796</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.02968584932386875</v>
+        <v>0.003090411890298128</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.008285404182970524</v>
+        <v>0.002358583733439445</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.01177681516855955</v>
+        <v>0.01743292436003685</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.01077756285667419</v>
+        <v>0.005871916189789772</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001815436058677733</v>
+        <v>0.00346813490614295</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.008505171164870262</v>
+        <v>0.0007323684985749424</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.03142495825886726</v>
+        <v>0.01111135352402925</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.01261856686323881</v>
+        <v>0.01614691503345966</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.004186984617263079</v>
+        <v>0.001028102589771152</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01165984012186527</v>
+        <v>0.007357004564255476</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.02757934108376503</v>
+        <v>0.002681851619854569</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.01807293295860291</v>
+        <v>0.004471894353628159</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.01540278550237417</v>
+        <v>0.004690642468631268</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.00888607744127512</v>
+        <v>0.004709634464234114</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.03933605924248695</v>
+        <v>0.01923193782567978</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.00196126289665699</v>
+        <v>0.003814245807006955</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.007180445827543736</v>
+        <v>0.006716744974255562</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01009959354996681</v>
+        <v>0.003475601552054286</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.01710027828812599</v>
+        <v>0.01016984693706036</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.009557805955410004</v>
+        <v>0.005299518350511789</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0103911692276597</v>
+        <v>0.00758060859516263</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.01223119162023067</v>
+        <v>0.003032964887097478</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.04431987181305885</v>
+        <v>0.005573092959821224</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.006147578358650208</v>
+        <v>0.001457392238080502</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.02021573856472969</v>
+        <v>0.00951731950044632</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.001178835984319448</v>
+        <v>0.01262808032333851</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.005105580203235149</v>
+        <v>0.003794170450419188</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.03061839193105698</v>
+        <v>0.0118335485458374</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.00605368334800005</v>
+        <v>0.0152529701590538</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0103825144469738</v>
+        <v>0.02879751101136208</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.02961018308997154</v>
+        <v>0.01096358243376017</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.01906562596559525</v>
+        <v>0.002462036674842238</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.01498771551996469</v>
+        <v>0.006148446816951036</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.02178068086504936</v>
+        <v>0.00642464542761445</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.004318129271268845</v>
+        <v>0.01378188189119101</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.01168207731097937</v>
+        <v>0.002844619797542691</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.03837030008435249</v>
+        <v>0.01652162149548531</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01073022931814194</v>
+        <v>0.0009351181797683239</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0003648495767265558</v>
+        <v>0.006443202495574951</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.01847142539918423</v>
+        <v>0.009009476751089096</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.005299742799252272</v>
+        <v>0.001074720756150782</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.003311199136078358</v>
+        <v>0.003233850467950106</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.006642635446041822</v>
+        <v>0.002939324593171477</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.006928378716111183</v>
+        <v>0.0004153936170041561</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.007108872290700674</v>
+        <v>0.003925295546650887</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.04137113690376282</v>
+        <v>0.008660050109028816</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.003609701059758663</v>
+        <v>0.01090301107615232</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01860181242227554</v>
+        <v>0.002592784818261862</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.02500718645751476</v>
+        <v>0.008572820574045181</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.01770417951047421</v>
+        <v>0.007128340657800436</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.01766212098300457</v>
+        <v>0.0141217727214098</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.01829468458890915</v>
+        <v>0.004434868227690458</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.01344545744359493</v>
+        <v>0.01863945461809635</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.003846054198220372</v>
+        <v>0.009976654313504696</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.01435869373381138</v>
+        <v>0.01458568591624498</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.01790615171194077</v>
+        <v>0.004165517631918192</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.04511619731783867</v>
+        <v>0.003648602170869708</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0123613029718399</v>
+        <v>0.0114800501614809</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.009707260876893997</v>
+        <v>0.01099793147295713</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0001988315489143133</v>
+        <v>0.004646915476769209</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.01922455243766308</v>
+        <v>0.001037499052472413</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.007348567713052034</v>
+        <v>1.523667015135288e-05</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.01364893279969692</v>
+        <v>0.002615128410980105</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.06862745434045792</v>
+        <v>0.006235203705728054</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.01391580142080784</v>
+        <v>0.02883143909275532</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.01671515218913555</v>
+        <v>0.005909739062190056</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.01105006597936153</v>
+        <v>0.03210699930787086</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.01017933338880539</v>
+        <v>0.002370820613577962</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.00832091923803091</v>
+        <v>0.005527293309569359</v>
       </c>
     </row>
     <row r="11">
@@ -6694,1140 +6694,1140 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.746734809188638e-07</v>
+        <v>5.937104288022965e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>2.80057452073379e-06</v>
+        <v>0.001247704494744539</v>
       </c>
       <c r="C12" t="n">
-        <v>6.7371252043813e-07</v>
+        <v>0.0001756073907017708</v>
       </c>
       <c r="D12" t="n">
-        <v>1.858357222772611e-06</v>
+        <v>0.0002757367619778961</v>
       </c>
       <c r="E12" t="n">
-        <v>6.404890200428781e-07</v>
+        <v>0.0004606297588907182</v>
       </c>
       <c r="F12" t="n">
-        <v>1.351374407931871e-07</v>
+        <v>0.0002125478495145217</v>
       </c>
       <c r="G12" t="n">
-        <v>2.304324652868672e-06</v>
+        <v>8.315850573126227e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.482295488131058e-06</v>
+        <v>2.003303052333649e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>5.111240170663223e-06</v>
+        <v>7.359907613135874e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.109573418034415e-06</v>
+        <v>2.081922139041126e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.910167611640645e-06</v>
+        <v>0.0009366983431391418</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75701654572913e-06</v>
+        <v>3.273133188486099e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>8.628447858427535e-07</v>
+        <v>0.0001635908265598118</v>
       </c>
       <c r="N12" t="n">
-        <v>7.552649776698672e-07</v>
+        <v>0.0003144193615298718</v>
       </c>
       <c r="O12" t="n">
-        <v>1.078595914805192e-07</v>
+        <v>8.856844942783937e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>2.469176251906902e-06</v>
+        <v>5.401160888141021e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.66424365236162e-07</v>
+        <v>0.0002334368327865377</v>
       </c>
       <c r="R12" t="n">
-        <v>5.172375040274346e-06</v>
+        <v>6.709951412631199e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>6.730816721756128e-07</v>
+        <v>2.253132879559416e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>4.674864158005221e-07</v>
+        <v>0.0001909808488562703</v>
       </c>
       <c r="U12" t="n">
-        <v>6.132317480478378e-07</v>
+        <v>9.317754302173853e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.305842829424364e-06</v>
+        <v>0.0001339534937869757</v>
       </c>
       <c r="W12" t="n">
-        <v>1.686577775217302e-06</v>
+        <v>5.424235132522881e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>9.570570114192378e-08</v>
+        <v>0.0001653577928664163</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.532314955620677e-07</v>
+        <v>2.330717506993096e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.92156345899275e-07</v>
+        <v>0.0001174316930701025</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.171582198367105e-06</v>
+        <v>5.502015847014263e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.224336175364442e-07</v>
+        <v>1.285654434468597e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.945412577697425e-06</v>
+        <v>0.000204124822630547</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.433156621213129e-07</v>
+        <v>1.253957088920288e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.410372988175368e-06</v>
+        <v>6.133116403361782e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.114848360994074e-07</v>
+        <v>6.361072883009911e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.274857197586243e-08</v>
+        <v>8.947710739448667e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.455069423172972e-06</v>
+        <v>6.094200580264442e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.253610417341406e-07</v>
+        <v>5.685547876055352e-06</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.064904949998891e-06</v>
+        <v>2.524756928323768e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>5.103236588865911e-08</v>
+        <v>0.0001658812252571806</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.406988587859814e-07</v>
+        <v>0.0001547122228657827</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.526945632387651e-07</v>
+        <v>5.600177610176615e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.798019734967966e-07</v>
+        <v>1.668660479481332e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.670605164847075e-07</v>
+        <v>9.977797162719071e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.962863391076098e-06</v>
+        <v>0.0002096924145007506</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.347807364662003e-07</v>
+        <v>8.134802192216739e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.51157983813755e-07</v>
+        <v>2.855773345800117e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.35045283400359e-07</v>
+        <v>7.802418258506805e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.65889844083722e-06</v>
+        <v>3.633686355897225e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.936029434546072e-07</v>
+        <v>0.0008793487795628607</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.989615268234047e-06</v>
+        <v>7.600180833833292e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.443472624236165e-08</v>
+        <v>5.501353371073492e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.378598023573431e-08</v>
+        <v>0.0001536737545393407</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.282483021394e-06</v>
+        <v>0.000222525472054258</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7.433922633026668e-07</v>
+        <v>0.000217293098103255</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.132516207595472e-07</v>
+        <v>4.733178138849325e-05</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.997932369908085e-06</v>
+        <v>2.511624188628048e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.144307361755637e-06</v>
+        <v>7.0308378781192e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.156021082555526e-06</v>
+        <v>0.0003132105339318514</v>
       </c>
       <c r="BE12" t="n">
-        <v>8.886802334018284e-07</v>
+        <v>0.0001154878846136853</v>
       </c>
       <c r="BF12" t="n">
-        <v>9.340436690763454e-08</v>
+        <v>2.817681524902582e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.443245537302573e-06</v>
+        <v>0.000263370166067034</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.041165205606376e-06</v>
+        <v>1.935460750246421e-05</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.364373588330636e-06</v>
+        <v>7.423554052365944e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.737574732236681e-06</v>
+        <v>0.0002105586463585496</v>
       </c>
       <c r="BK12" t="n">
-        <v>7.329057325478061e-07</v>
+        <v>2.633206895552576e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>3.444052367740369e-07</v>
+        <v>0.0001709465286694467</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.362104740110226e-06</v>
+        <v>0.0003969042154494673</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.054406084222137e-06</v>
+        <v>0.0001165456342278048</v>
       </c>
       <c r="BO12" t="n">
-        <v>7.137207376217702e-07</v>
+        <v>3.179668055963702e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.098873608247231e-08</v>
+        <v>0.0002545875322539359</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.050918936902235e-07</v>
+        <v>9.678339120000601e-05</v>
       </c>
       <c r="BR12" t="n">
-        <v>7.876107019910705e-07</v>
+        <v>8.313557191286236e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>9.279640380555065e-07</v>
+        <v>6.278074579313397e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>9.322136520495405e-07</v>
+        <v>3.215037941117771e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>7.717325161138433e-07</v>
+        <v>5.072616841061972e-05</v>
       </c>
       <c r="BV12" t="n">
-        <v>7.602517371196882e-07</v>
+        <v>0.0005434128106571734</v>
       </c>
       <c r="BW12" t="n">
-        <v>2.340839557746222e-07</v>
+        <v>0.0002372300659772009</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.592601620359346e-06</v>
+        <v>3.558948446880095e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.678947907952534e-07</v>
+        <v>4.115346018807031e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4.999392331228592e-07</v>
+        <v>0.0001451923308195546</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.309736262555816e-06</v>
+        <v>4.713008820544928e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>7.875297569626127e-07</v>
+        <v>1.786301072570495e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>2.355736569370492e-06</v>
+        <v>3.377217581146397e-05</v>
       </c>
       <c r="CD12" t="n">
-        <v>8.482149382871285e-08</v>
+        <v>9.562826562614646e-06</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.059879537024244e-06</v>
+        <v>0.0002143941383110359</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.646218805717581e-08</v>
+        <v>1.064766092895297e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>2.199571014216417e-07</v>
+        <v>6.336042133625597e-05</v>
       </c>
       <c r="CH12" t="n">
-        <v>2.185010430366674e-07</v>
+        <v>1.20594750114833e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.709315142761625e-07</v>
+        <v>1.972488826140761e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>6.148434295027982e-08</v>
+        <v>6.476586713688448e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>6.282255071710097e-07</v>
+        <v>5.296926701703342e-06</v>
       </c>
       <c r="CL12" t="n">
-        <v>4.539218139143486e-07</v>
+        <v>3.009699139511213e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>5.926195854044636e-07</v>
+        <v>0.0002752371656242758</v>
       </c>
       <c r="CN12" t="n">
-        <v>3.377289488071256e-07</v>
+        <v>0.00024825704167597</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.354820540200308e-07</v>
+        <v>1.109820914280135e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.032916768257564e-07</v>
+        <v>0.0001976561034098268</v>
       </c>
       <c r="CQ12" t="n">
-        <v>6.304370572252083e-07</v>
+        <v>0.0003038596478290856</v>
       </c>
       <c r="CR12" t="n">
-        <v>3.228078355732578e-07</v>
+        <v>0.0001794474519556388</v>
       </c>
       <c r="CS12" t="n">
-        <v>2.880201179777941e-07</v>
+        <v>8.315009472426027e-05</v>
       </c>
       <c r="CT12" t="n">
-        <v>4.842718226427678e-07</v>
+        <v>0.0001286249898839742</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.224841639668739e-06</v>
+        <v>1.954713297891431e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.284963673242601e-07</v>
+        <v>6.566333468072116e-06</v>
       </c>
       <c r="CW12" t="n">
-        <v>6.524522291329049e-07</v>
+        <v>0.0001743164320942014</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.859020954952939e-07</v>
+        <v>5.069092730991542e-05</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.690165731815796e-07</v>
+        <v>0.0001180257022497244</v>
       </c>
       <c r="CZ12" t="n">
-        <v>4.043464514325024e-07</v>
+        <v>2.276560735481326e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.386053547023039e-07</v>
+        <v>4.56161615147721e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>9.797759759067048e-08</v>
+        <v>5.448361116577871e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>6.241443770704791e-07</v>
+        <v>3.065574128413573e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.989907544470043e-07</v>
+        <v>2.22145226871362e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>7.167413969000336e-07</v>
+        <v>5.632701140712015e-05</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.95527218238567e-06</v>
+        <v>0.0004638427635654807</v>
       </c>
       <c r="DG12" t="n">
-        <v>3.120404471701477e-06</v>
+        <v>2.164632860512938e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>7.368493015746935e-08</v>
+        <v>0.0004018401668872684</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.492191358920536e-06</v>
+        <v>0.0002391142188571393</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2.88502087641973e-06</v>
+        <v>9.817979298532009e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>3.183065018674824e-06</v>
+        <v>0.0003092931874562055</v>
       </c>
       <c r="DL12" t="n">
-        <v>9.476198670199665e-07</v>
+        <v>0.0001300582953263074</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.20822255667008e-06</v>
+        <v>0.0002963978331536055</v>
       </c>
       <c r="DN12" t="n">
-        <v>6.383166351042746e-07</v>
+        <v>0.0001167645386885852</v>
       </c>
       <c r="DO12" t="n">
-        <v>4.187688773527043e-07</v>
+        <v>0.000230137724429369</v>
       </c>
       <c r="DP12" t="n">
-        <v>2.094884166581323e-06</v>
+        <v>5.918063106946647e-05</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.058260863828764e-06</v>
+        <v>6.671548180747777e-05</v>
       </c>
       <c r="DR12" t="n">
-        <v>7.516385380768043e-07</v>
+        <v>1.607453668839298e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>5.27463583921417e-09</v>
+        <v>0.0001675126695772633</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.43945373515453e-07</v>
+        <v>9.079716983251274e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.297599846519006e-07</v>
+        <v>2.836532439687289e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>3.340369971738255e-07</v>
+        <v>3.485685010673478e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>9.014165129883622e-07</v>
+        <v>3.603080403991044e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>4.924498853142723e-07</v>
+        <v>3.681640737340786e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>6.501322502572293e-08</v>
+        <v>1.239550965692615e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>4.542685019259807e-07</v>
+        <v>3.50662594428286e-05</v>
       </c>
       <c r="EA12" t="n">
-        <v>7.693319048485137e-07</v>
+        <v>0.0001560039672767743</v>
       </c>
       <c r="EB12" t="n">
-        <v>1.036927770314833e-07</v>
+        <v>4.991485911887139e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>4.666287622967502e-07</v>
+        <v>5.606697959592566e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.958341044883127e-09</v>
+        <v>4.014605656266212e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.743100822044653e-07</v>
+        <v>8.536690438631922e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.354997039015871e-07</v>
+        <v>4.21092554461211e-05</v>
       </c>
       <c r="EG12" t="n">
-        <v>2.268774096592097e-06</v>
+        <v>0.0001020269119180739</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.10218401516704e-07</v>
+        <v>3.144841684843414e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>3.680979432374443e-07</v>
+        <v>5.031004548072815e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>7.469355978173553e-08</v>
+        <v>6.254874460864812e-05</v>
       </c>
       <c r="EK12" t="n">
-        <v>2.801207870106737e-07</v>
+        <v>8.802806405583397e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>6.430786925193388e-07</v>
+        <v>8.408689609495923e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>2.720500447139784e-07</v>
+        <v>9.841369319474325e-07</v>
       </c>
       <c r="EN12" t="n">
-        <v>9.884141718430328e-07</v>
+        <v>6.289233169809449e-06</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.028838482852734e-06</v>
+        <v>0.0001325495395576581</v>
       </c>
       <c r="EP12" t="n">
-        <v>7.621733288942778e-07</v>
+        <v>2.923155625467189e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>9.596154768587439e-07</v>
+        <v>0.0001059439382515848</v>
       </c>
       <c r="ER12" t="n">
-        <v>4.59820938658595e-07</v>
+        <v>0.0001546306593809277</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.361921363240981e-06</v>
+        <v>9.410848724655807e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.623283765184169e-07</v>
+        <v>4.236232780385762e-05</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.750144005858601e-07</v>
+        <v>0.0001006576494546607</v>
       </c>
       <c r="EV12" t="n">
-        <v>5.230963324720506e-07</v>
+        <v>0.000102154808701016</v>
       </c>
       <c r="EW12" t="n">
-        <v>9.311637541031814e-07</v>
+        <v>7.421025657095015e-05</v>
       </c>
       <c r="EX12" t="n">
-        <v>2.4006882881622e-07</v>
+        <v>4.464954145078082e-06</v>
       </c>
       <c r="EY12" t="n">
-        <v>6.328201607175288e-07</v>
+        <v>0.0001451082789571956</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.259695920907689e-07</v>
+        <v>1.608705133548938e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.671890453915694e-07</v>
+        <v>6.87174397171475e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.792045907222928e-07</v>
+        <v>4.990873276256025e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>5.469229336085846e-07</v>
+        <v>5.011980829294771e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>2.120696649399179e-07</v>
+        <v>9.012508962769061e-05</v>
       </c>
       <c r="FE12" t="n">
-        <v>4.361342575975868e-07</v>
+        <v>4.942668056173716e-06</v>
       </c>
       <c r="FF12" t="n">
-        <v>9.60604552346922e-07</v>
+        <v>7.064511009957641e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.340547299832906e-07</v>
+        <v>2.01818547793664e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.116355221597587e-07</v>
+        <v>9.661350486567244e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>5.55914084543474e-07</v>
+        <v>5.209697701502591e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.266294930246659e-06</v>
+        <v>9.019566641654819e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>6.126196012701257e-07</v>
+        <v>0.000114578302600421</v>
       </c>
       <c r="FL12" t="n">
-        <v>3.68366634972972e-08</v>
+        <v>5.715054794563912e-05</v>
       </c>
       <c r="FM12" t="n">
-        <v>6.842651600891259e-07</v>
+        <v>9.751621109899133e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>2.589902123872889e-07</v>
+        <v>0.0001240875863004476</v>
       </c>
       <c r="FO12" t="n">
-        <v>7.95580490375869e-09</v>
+        <v>2.753605986072216e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>9.754674579198763e-08</v>
+        <v>0.000197309534996748</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.357861151518591e-06</v>
+        <v>6.033328827470541e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>2.548813426983543e-07</v>
+        <v>6.552255945280194e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.070668076863512e-06</v>
+        <v>0.0001664500014157966</v>
       </c>
       <c r="FT12" t="n">
-        <v>9.186338161271124e-07</v>
+        <v>1.381351466989145e-05</v>
       </c>
       <c r="FU12" t="n">
-        <v>1.047371029017086e-06</v>
+        <v>6.87690990162082e-05</v>
       </c>
       <c r="FV12" t="n">
-        <v>5.209499249758665e-07</v>
+        <v>1.623995012778323e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.116614664122608e-07</v>
+        <v>1.71897881955374e-05</v>
       </c>
       <c r="FX12" t="n">
-        <v>4.983530033086936e-08</v>
+        <v>7.320315489778295e-06</v>
       </c>
       <c r="FY12" t="n">
-        <v>9.764158903635689e-07</v>
+        <v>0.0001221097918460146</v>
       </c>
       <c r="FZ12" t="n">
-        <v>1.892076170406654e-06</v>
+        <v>0.0001393414859194309</v>
       </c>
       <c r="GA12" t="n">
-        <v>5.16337024691893e-07</v>
+        <v>7.225329318316653e-05</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.570050585542049e-06</v>
+        <v>1.766629611665849e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>3.32433302219215e-07</v>
+        <v>8.74191609909758e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>3.420400958020764e-07</v>
+        <v>0.0001879635965451598</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.512791752451449e-07</v>
+        <v>0.0001683218142716214</v>
       </c>
       <c r="GF12" t="n">
-        <v>7.135135433600226e-07</v>
+        <v>7.514718163292855e-07</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.193817951161691e-07</v>
+        <v>6.46921107545495e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.939478564367164e-06</v>
+        <v>0.0003530065005179495</v>
       </c>
       <c r="B13" t="n">
-        <v>2.141350705642253e-06</v>
+        <v>0.005732037127017975</v>
       </c>
       <c r="C13" t="n">
-        <v>3.869334614137188e-05</v>
+        <v>0.0003909642982762307</v>
       </c>
       <c r="D13" t="n">
-        <v>7.798697879479732e-06</v>
+        <v>0.003212523646652699</v>
       </c>
       <c r="E13" t="n">
-        <v>2.563567431934644e-05</v>
+        <v>0.002129185246303678</v>
       </c>
       <c r="F13" t="n">
-        <v>9.020325705932919e-06</v>
+        <v>5.403459363151342e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>1.159645307780011e-06</v>
+        <v>0.0008018409134820104</v>
       </c>
       <c r="H13" t="n">
-        <v>5.240841346676461e-06</v>
+        <v>0.0009095708373934031</v>
       </c>
       <c r="I13" t="n">
-        <v>2.567473529779818e-05</v>
+        <v>0.0003245011321268976</v>
       </c>
       <c r="J13" t="n">
-        <v>2.62537560047349e-06</v>
+        <v>0.0002957389806397259</v>
       </c>
       <c r="K13" t="n">
-        <v>5.031481123296544e-06</v>
+        <v>0.004156108014285564</v>
       </c>
       <c r="L13" t="n">
-        <v>3.929206286557019e-05</v>
+        <v>0.0005660675233229995</v>
       </c>
       <c r="M13" t="n">
-        <v>4.189157152723055e-06</v>
+        <v>0.002449214225634933</v>
       </c>
       <c r="N13" t="n">
-        <v>1.541224082757253e-05</v>
+        <v>0.002409079810604453</v>
       </c>
       <c r="O13" t="n">
-        <v>8.80335210240446e-06</v>
+        <v>0.0006962275947444141</v>
       </c>
       <c r="P13" t="n">
-        <v>2.657297500263667e-06</v>
+        <v>0.000771515944506973</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.153462997346651e-06</v>
+        <v>0.0002686039661057293</v>
       </c>
       <c r="R13" t="n">
-        <v>3.051030762435403e-05</v>
+        <v>0.0003278217918705195</v>
       </c>
       <c r="S13" t="n">
-        <v>4.08228333981242e-06</v>
+        <v>9.816017700359225e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009312472888269e-05</v>
+        <v>0.001001554192043841</v>
       </c>
       <c r="U13" t="n">
-        <v>1.331358134848415e-07</v>
+        <v>0.0004169469757471234</v>
       </c>
       <c r="V13" t="n">
-        <v>9.923260222421959e-06</v>
+        <v>0.0007240825798362494</v>
       </c>
       <c r="W13" t="n">
-        <v>1.127518885368772e-06</v>
+        <v>0.0005343552911654115</v>
       </c>
       <c r="X13" t="n">
-        <v>1.4876264913255e-06</v>
+        <v>0.0007271122885867953</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.644840606080834e-06</v>
+        <v>0.0005480788531713188</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.255846983549418e-06</v>
+        <v>0.0007042006473056972</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.118253051885404e-06</v>
+        <v>0.0005307401879690588</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.257042398123303e-07</v>
+        <v>0.0001580228563398123</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.468011760152876e-06</v>
+        <v>0.0008381317020393908</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.469326093683776e-06</v>
+        <v>0.0003756016376428306</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.414410346318618e-06</v>
+        <v>0.0007934908499009907</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.345266006566817e-06</v>
+        <v>0.000134811969473958</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.115236596495379e-06</v>
+        <v>0.0002416907227598131</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.371557457081508e-07</v>
+        <v>0.000207092976779677</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.520471505500609e-05</v>
+        <v>8.500099647790194e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.458310159971006e-06</v>
+        <v>0.0004738155694212765</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.001136635954026e-06</v>
+        <v>0.0001384484639856964</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.366822268930264e-06</v>
+        <v>0.0007613615016452968</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.19675689045107e-06</v>
+        <v>0.0005154475220479071</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.607235496223439e-06</v>
+        <v>8.003746916074306e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.672966949532565e-07</v>
+        <v>0.0006524948985315859</v>
       </c>
       <c r="AP13" t="n">
-        <v>6.603274414374027e-06</v>
+        <v>0.0005929362378083169</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7.576830398647871e-07</v>
+        <v>0.0003844296443276107</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.206633666901325e-07</v>
+        <v>0.0005496960948221385</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.766435613921203e-08</v>
+        <v>0.0001870337291620672</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.119974164495943e-06</v>
+        <v>0.0005189873045310378</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.144491180748446e-06</v>
+        <v>0.004202707204967737</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.318673432455398e-05</v>
+        <v>4.677069227909669e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.939797236147569e-06</v>
+        <v>0.0004769078223034739</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.527712346520275e-06</v>
+        <v>0.0007343284669332206</v>
       </c>
       <c r="AY13" t="n">
-        <v>8.165963663486764e-06</v>
+        <v>9.179417247651145e-05</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9.004945695778588e-07</v>
+        <v>0.0001321600284427404</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.29473811891512e-06</v>
+        <v>0.0003019240102730691</v>
       </c>
       <c r="BB13" t="n">
-        <v>7.586051196994958e-06</v>
+        <v>1.254997550859116e-05</v>
       </c>
       <c r="BC13" t="n">
-        <v>8.707780807526433e-07</v>
+        <v>0.0004930377472192049</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.201659976388328e-06</v>
+        <v>0.001155687845312059</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.319299917668104e-05</v>
+        <v>0.0006122726481407881</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.730354597384576e-06</v>
+        <v>0.0006307856529019773</v>
       </c>
       <c r="BG13" t="n">
-        <v>9.383635187987238e-06</v>
+        <v>0.001595758949406445</v>
       </c>
       <c r="BH13" t="n">
-        <v>8.449565939372405e-06</v>
+        <v>0.0002197191788582131</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.367657887385576e-06</v>
+        <v>0.0008814072934910655</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.463379476263071e-06</v>
+        <v>0.0005805437103845179</v>
       </c>
       <c r="BK13" t="n">
-        <v>4.449160769581795e-06</v>
+        <v>0.0001581263350090012</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.571944380884815e-06</v>
+        <v>0.0007860578480176628</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.747010401231819e-06</v>
+        <v>0.0015741977840662</v>
       </c>
       <c r="BN13" t="n">
-        <v>8.586755939177237e-06</v>
+        <v>0.0006955850985832512</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.090041562041733e-06</v>
+        <v>0.0001230650814250112</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.589378027550993e-06</v>
+        <v>0.0003814151277765632</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.590642341398052e-06</v>
+        <v>0.0006866919575259089</v>
       </c>
       <c r="BR13" t="n">
-        <v>3.868311523547163e-06</v>
+        <v>1.549598528072238e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>9.902358215185814e-06</v>
+        <v>4.284915485186502e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>5.334904017217923e-06</v>
+        <v>0.0002845702401828021</v>
       </c>
       <c r="BU13" t="n">
-        <v>4.173015440755989e-06</v>
+        <v>0.0006019703578203917</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.98225302483479e-06</v>
+        <v>0.002618169644847512</v>
       </c>
       <c r="BW13" t="n">
-        <v>9.587204658600967e-06</v>
+        <v>0.000570296891964972</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.985961373269674e-06</v>
+        <v>0.0005085293669253588</v>
       </c>
       <c r="BY13" t="n">
-        <v>9.264621439797338e-06</v>
+        <v>0.0001463718945160508</v>
       </c>
       <c r="BZ13" t="n">
-        <v>4.159139734838391e-06</v>
+        <v>0.001247805776074529</v>
       </c>
       <c r="CA13" t="n">
-        <v>7.921001383692783e-07</v>
+        <v>0.0002683256170712411</v>
       </c>
       <c r="CB13" t="n">
-        <v>8.537301710020984e-07</v>
+        <v>0.0002175649715354666</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.197070014313795e-05</v>
+        <v>0.0006706035928800702</v>
       </c>
       <c r="CD13" t="n">
-        <v>4.523626557784155e-07</v>
+        <v>0.0001773934927769005</v>
       </c>
       <c r="CE13" t="n">
-        <v>4.581861048791325e-06</v>
+        <v>0.0008598202257417142</v>
       </c>
       <c r="CF13" t="n">
-        <v>6.911104719620198e-06</v>
+        <v>0.000171559484442696</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.097695076168748e-06</v>
+        <v>0.0004110552836209536</v>
       </c>
       <c r="CH13" t="n">
-        <v>5.366424829844618e-06</v>
+        <v>8.749779954086989e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>5.343121301848441e-06</v>
+        <v>0.0001600848918315023</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.540427433610603e-06</v>
+        <v>0.0002058388199657202</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.35172126647376e-06</v>
+        <v>1.961087036761455e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>3.909518000000389e-06</v>
+        <v>0.0002418739895801991</v>
       </c>
       <c r="CM13" t="n">
-        <v>6.548701094288845e-06</v>
+        <v>0.0008559239213354886</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.464600882172817e-05</v>
+        <v>0.0007495501195080578</v>
       </c>
       <c r="CO13" t="n">
-        <v>5.658165719069075e-06</v>
+        <v>0.0001993134937947616</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.779077365426929e-06</v>
+        <v>0.000771219318266958</v>
       </c>
       <c r="CQ13" t="n">
-        <v>5.041158146923408e-06</v>
+        <v>0.0006198749761097133</v>
       </c>
       <c r="CR13" t="n">
-        <v>4.925238499708939e-06</v>
+        <v>0.0005882256082259119</v>
       </c>
       <c r="CS13" t="n">
-        <v>2.768804506558808e-06</v>
+        <v>0.0008286327356472611</v>
       </c>
       <c r="CT13" t="n">
-        <v>3.026573040187941e-06</v>
+        <v>0.001557893352583051</v>
       </c>
       <c r="CU13" t="n">
-        <v>6.089407179388218e-06</v>
+        <v>6.800724077038467e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>6.778628289794142e-07</v>
+        <v>0.0002278033352922648</v>
       </c>
       <c r="CW13" t="n">
-        <v>4.231437287671724e-06</v>
+        <v>0.0006248597637750208</v>
       </c>
       <c r="CX13" t="n">
-        <v>6.500043127743993e-06</v>
+        <v>0.0003558957250788808</v>
       </c>
       <c r="CY13" t="n">
-        <v>1.139900405178196e-06</v>
+        <v>0.0006984462379477918</v>
       </c>
       <c r="CZ13" t="n">
-        <v>8.719732250028756e-06</v>
+        <v>4.435711889527738e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>5.225160748523194e-06</v>
+        <v>0.0002152387896785513</v>
       </c>
       <c r="DB13" t="n">
-        <v>1.335434944849112e-06</v>
+        <v>0.0001730510994093493</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.626564653633977e-06</v>
+        <v>7.346313213929534e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>5.100670023239218e-06</v>
+        <v>6.340543768601492e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>4.998044460080564e-06</v>
+        <v>0.0001767947396729141</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.011696713248966e-05</v>
+        <v>0.001208521774969995</v>
       </c>
       <c r="DG13" t="n">
-        <v>6.411654794646893e-06</v>
+        <v>9.781776316231117e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>6.019357897457667e-06</v>
+        <v>0.001772149698808789</v>
       </c>
       <c r="DI13" t="n">
-        <v>6.830573511251714e-06</v>
+        <v>0.0002448449959047139</v>
       </c>
       <c r="DJ13" t="n">
-        <v>5.136368599778507e-06</v>
+        <v>0.0007083003292791545</v>
       </c>
       <c r="DK13" t="n">
-        <v>8.76363628776744e-07</v>
+        <v>0.0009067218634299934</v>
       </c>
       <c r="DL13" t="n">
-        <v>1.687806275185721e-06</v>
+        <v>0.0003757932281587273</v>
       </c>
       <c r="DM13" t="n">
-        <v>4.094192718184786e-08</v>
+        <v>0.0001488963316660374</v>
       </c>
       <c r="DN13" t="n">
-        <v>3.455110800132388e-06</v>
+        <v>0.000541982997674495</v>
       </c>
       <c r="DO13" t="n">
-        <v>4.2209599087073e-06</v>
+        <v>0.0002564784663263708</v>
       </c>
       <c r="DP13" t="n">
-        <v>2.942924993476481e-06</v>
+        <v>0.0003479219740256667</v>
       </c>
       <c r="DQ13" t="n">
-        <v>4.579297637974378e-06</v>
+        <v>0.0001144898706115782</v>
       </c>
       <c r="DR13" t="n">
-        <v>1.361759586870903e-06</v>
+        <v>0.0004449583357200027</v>
       </c>
       <c r="DS13" t="n">
-        <v>6.507269745270605e-07</v>
+        <v>8.854065526975319e-06</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.063946905967896e-06</v>
+        <v>7.932471635285765e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.767633643292356e-06</v>
+        <v>9.254092583432794e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>4.976525815436617e-06</v>
+        <v>0.0002302795473951846</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.168701712434995e-06</v>
+        <v>1.574855195940472e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>2.594113084342098e-06</v>
+        <v>0.0001428618561476469</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.661074293224374e-06</v>
+        <v>0.000195815839106217</v>
       </c>
       <c r="DZ13" t="n">
-        <v>3.717086656251922e-07</v>
+        <v>3.274340269854292e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>8.273265848401934e-06</v>
+        <v>0.0009066041093319654</v>
       </c>
       <c r="EB13" t="n">
-        <v>4.886368060397217e-06</v>
+        <v>0.0004125361447222531</v>
       </c>
       <c r="EC13" t="n">
-        <v>1.281935624319885e-06</v>
+        <v>0.0002085004962282255</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.608237198524876e-06</v>
+        <v>0.0002368604764342308</v>
       </c>
       <c r="EE13" t="n">
-        <v>3.290195081717684e-06</v>
+        <v>0.0001068370038410649</v>
       </c>
       <c r="EF13" t="n">
-        <v>1.983526317417272e-06</v>
+        <v>6.689841393381357e-05</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.862499397655483e-06</v>
+        <v>0.0005897833034396172</v>
       </c>
       <c r="EH13" t="n">
-        <v>5.532472641789354e-06</v>
+        <v>0.0001995719503611326</v>
       </c>
       <c r="EI13" t="n">
-        <v>2.011259084611083e-06</v>
+        <v>0.0002947829489130527</v>
       </c>
       <c r="EJ13" t="n">
-        <v>2.681010528249317e-06</v>
+        <v>0.0007717855623923242</v>
       </c>
       <c r="EK13" t="n">
-        <v>6.748916348442435e-06</v>
+        <v>4.160738535574637e-05</v>
       </c>
       <c r="EL13" t="n">
-        <v>4.294256541470531e-07</v>
+        <v>0.0001111571255023591</v>
       </c>
       <c r="EM13" t="n">
-        <v>3.45187481798348e-06</v>
+        <v>0.0001648634643061087</v>
       </c>
       <c r="EN13" t="n">
-        <v>1.461593228668789e-06</v>
+        <v>6.563066563103348e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>4.660534159484087e-06</v>
+        <v>0.0002804092946462333</v>
       </c>
       <c r="EP13" t="n">
-        <v>1.950948899320792e-06</v>
+        <v>0.0001907326804939657</v>
       </c>
       <c r="EQ13" t="n">
-        <v>3.669232455649762e-07</v>
+        <v>0.0004952558665536344</v>
       </c>
       <c r="ER13" t="n">
-        <v>1.17774334285059e-06</v>
+        <v>0.0008742493810132146</v>
       </c>
       <c r="ES13" t="n">
-        <v>1.977685087695136e-06</v>
+        <v>0.0003354148066136986</v>
       </c>
       <c r="ET13" t="n">
-        <v>2.551635134295793e-07</v>
+        <v>0.001005616621114314</v>
       </c>
       <c r="EU13" t="n">
-        <v>1.271986548090354e-06</v>
+        <v>0.0004136383649893105</v>
       </c>
       <c r="EV13" t="n">
-        <v>1.646065612703751e-07</v>
+        <v>1.409987089573406e-05</v>
       </c>
       <c r="EW13" t="n">
-        <v>6.26480505161453e-06</v>
+        <v>0.0001976657367777079</v>
       </c>
       <c r="EX13" t="n">
-        <v>1.727727635625342e-06</v>
+        <v>9.195115126203746e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>4.406618245411664e-06</v>
+        <v>0.0006391842034645379</v>
       </c>
       <c r="EZ13" t="n">
-        <v>6.627157290495234e-06</v>
+        <v>0.0002635153068695217</v>
       </c>
       <c r="FA13" t="n">
-        <v>2.673573931133433e-07</v>
+        <v>0.000655258831102401</v>
       </c>
       <c r="FB13" t="n">
-        <v>5.287128260533791e-06</v>
+        <v>0.0001233287184732035</v>
       </c>
       <c r="FC13" t="n">
-        <v>4.26657470598002e-06</v>
+        <v>0.0003156817401759326</v>
       </c>
       <c r="FD13" t="n">
-        <v>1.39592589221138e-06</v>
+        <v>0.0003230612492188811</v>
       </c>
       <c r="FE13" t="n">
-        <v>8.264111102107563e-07</v>
+        <v>1.472133953939192e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>6.217339432623703e-06</v>
+        <v>0.0002399887162027881</v>
       </c>
       <c r="FG13" t="n">
-        <v>2.633672238516738e-06</v>
+        <v>0.0002304896770510823</v>
       </c>
       <c r="FH13" t="n">
-        <v>5.35363687959034e-06</v>
+        <v>0.0003725539136212319</v>
       </c>
       <c r="FI13" t="n">
-        <v>6.29080341241206e-06</v>
+        <v>0.0002119382406817749</v>
       </c>
       <c r="FJ13" t="n">
-        <v>2.995357590407366e-06</v>
+        <v>0.0005432516918517649</v>
       </c>
       <c r="FK13" t="n">
-        <v>6.809867500123801e-06</v>
+        <v>0.0003542247868608683</v>
       </c>
       <c r="FL13" t="n">
-        <v>1.597445589140989e-06</v>
+        <v>0.0002259440952911973</v>
       </c>
       <c r="FM13" t="n">
-        <v>3.626843408710556e-06</v>
+        <v>0.0001544467522762716</v>
       </c>
       <c r="FN13" t="n">
-        <v>1.31205831621628e-06</v>
+        <v>0.0002758215414360166</v>
       </c>
       <c r="FO13" t="n">
-        <v>4.894336598226801e-06</v>
+        <v>0.0001861748314695433</v>
       </c>
       <c r="FP13" t="n">
-        <v>2.916538051067619e-06</v>
+        <v>0.0004174676141701639</v>
       </c>
       <c r="FQ13" t="n">
-        <v>9.524074812361505e-06</v>
+        <v>5.056450754636899e-05</v>
       </c>
       <c r="FR13" t="n">
-        <v>5.117105501994956e-06</v>
+        <v>0.000851536518894136</v>
       </c>
       <c r="FS13" t="n">
-        <v>5.96917379880324e-06</v>
+        <v>0.0002348052948946133</v>
       </c>
       <c r="FT13" t="n">
-        <v>4.553866801870754e-06</v>
+        <v>0.0001429190597264096</v>
       </c>
       <c r="FU13" t="n">
-        <v>1.746641032696061e-06</v>
+        <v>0.0004236228996887803</v>
       </c>
       <c r="FV13" t="n">
-        <v>1.663208877289435e-07</v>
+        <v>6.145254155853763e-05</v>
       </c>
       <c r="FW13" t="n">
-        <v>3.55680185748497e-07</v>
+        <v>0.0003754997160285711</v>
       </c>
       <c r="FX13" t="n">
-        <v>3.053615728276782e-06</v>
+        <v>0.0003046073252335191</v>
       </c>
       <c r="FY13" t="n">
-        <v>2.799385129037546e-06</v>
+        <v>0.0005804095417261124</v>
       </c>
       <c r="FZ13" t="n">
-        <v>8.251196049968712e-06</v>
+        <v>0.0001419460168108344</v>
       </c>
       <c r="GA13" t="n">
-        <v>6.60582657019404e-07</v>
+        <v>0.0004193458007648587</v>
       </c>
       <c r="GB13" t="n">
-        <v>8.321197128680069e-06</v>
+        <v>0.000413610425312072</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.33062462232192e-06</v>
+        <v>0.0003285341081209481</v>
       </c>
       <c r="GD13" t="n">
-        <v>4.814626663574018e-06</v>
+        <v>0.001112289261072874</v>
       </c>
       <c r="GE13" t="n">
-        <v>9.384536951984046e-07</v>
+        <v>0.001706038485281169</v>
       </c>
       <c r="GF13" t="n">
-        <v>6.141281119198538e-06</v>
+        <v>0.0003219458449166268</v>
       </c>
       <c r="GG13" t="n">
-        <v>1.08112431007612e-06</v>
+        <v>0.0001114153055823408</v>
       </c>
     </row>
   </sheetData>
